--- a/echelon-lib-exceldata/src/main/resources/data/GTR/GTR_V_Tier_Equations.xlsx
+++ b/echelon-lib-exceldata/src/main/resources/data/GTR/GTR_V_Tier_Equations.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\echelon-data-db\echelon-lib-exceldata\src\main\resources\data\GTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9735"/>
+    <workbookView windowHeight="9735" windowWidth="15360" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tier1Eqs" sheetId="1" r:id="rId1"/>
-    <sheet name="Tier2Eqs" sheetId="2" r:id="rId2"/>
-    <sheet name="Tier3Eqs" sheetId="3" r:id="rId3"/>
-    <sheet name="Deletions" sheetId="4" r:id="rId4"/>
+    <sheet name="Tier1Eqs" r:id="rId1" sheetId="1"/>
+    <sheet name="Tier2Eqs" r:id="rId2" sheetId="2"/>
+    <sheet name="Tier3Eqs" r:id="rId3" sheetId="3"/>
+    <sheet name="Deletions" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Deletions!$A$1:$E$383</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tier1Eqs!$A$1:$J$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tier2Eqs!$A$1:$L$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tier3Eqs!$A$1:$J$29</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Deletions!$A$1:$E$383</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tier1Eqs!$A$1:$J$132</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tier2Eqs!$A$1:$L$91</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Tier3Eqs!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -3107,386 +3107,386 @@
     </border>
   </borders>
   <cellStyleXfs count="299">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="22" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="8" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="7">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="7"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="7"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="16" numFmtId="0" xfId="7"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="28" numFmtId="0" xfId="7"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="30" numFmtId="0" xfId="7">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="7"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="7"/>
+    <xf applyFill="1" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="36" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="7"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="7">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="7"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="101"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="41" numFmtId="0" xfId="7">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="7">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="101">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3614,7 +3614,7 @@
     <cellStyle name="Input 2" xfId="44"/>
     <cellStyle name="Linked Cell 2" xfId="45"/>
     <cellStyle name="Neutral 2" xfId="46"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 10" xfId="103"/>
     <cellStyle name="Normal 10 2" xfId="101"/>
     <cellStyle name="Normal 11" xfId="168"/>
@@ -3792,7 +3792,7 @@
     <cellStyle name="Warning Text 2" xfId="52"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3809,10 +3809,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3847,7 +3847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3899,7 +3899,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4010,21 +4010,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4041,7 +4041,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4093,30 +4093,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="K1" pane="bottomLeft" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="68.75" style="42" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="5.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="42" width="68.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4173,6 +4173,9 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B2&","&A2&",'"&D2&"','"&E2&"','"&H2&"','"&F2&"','"&G2&"','"&C2&"','V',"&I2&")"]]></f>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
@@ -4199,6 +4202,9 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition3],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B3&","&A3&",'"&D3&"','"&E3&"','"&H3&"','"&F3&"','"&G3&"','"&C3&"','V',"&I3&")"]]></f>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
@@ -4222,6 +4228,9 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition4],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B4&","&A4&",'"&D4&"','"&E4&"','"&H4&"','"&F4&"','"&G4&"','"&C4&"','V',"&I4&")"]]></f>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
@@ -4248,6 +4257,9 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition5],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B5&","&A5&",'"&D5&"','"&E5&"','"&H5&"','"&F5&"','"&G5&"','"&C5&"','V',"&I5&")"]]></f>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
@@ -4274,6 +4286,9 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition6],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B6&","&A6&",'"&D6&"','"&E6&"','"&H6&"','"&F6&"','"&G6&"','"&C6&"','V',"&I6&")"]]></f>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
@@ -4300,6 +4315,9 @@
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition7],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B7&","&A7&",'"&D7&"','"&E7&"','"&H7&"','"&F7&"','"&G7&"','"&C7&"','V',"&I7&")"]]></f>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
@@ -4326,6 +4344,9 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition8],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B8&","&A8&",'"&D8&"','"&E8&"','"&H8&"','"&F8&"','"&G8&"','"&C8&"','V',"&I8&")"]]></f>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
@@ -4352,6 +4373,9 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition9],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B9&","&A9&",'"&D9&"','"&E9&"','"&H9&"','"&F9&"','"&G9&"','"&C9&"','V',"&I9&")"]]></f>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
@@ -4375,6 +4399,9 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition10],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B10&","&A10&",'"&D10&"','"&E10&"','"&H10&"','"&F10&"','"&G10&"','"&C10&"','V',"&I10&")"]]></f>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
@@ -4401,6 +4428,9 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition11],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B11&","&A11&",'"&D11&"','"&E11&"','"&H11&"','"&F11&"','"&G11&"','"&C11&"','V',"&I11&")"]]></f>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
@@ -4427,6 +4457,9 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition12],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B12&","&A12&",'"&D12&"','"&E12&"','"&H12&"','"&F12&"','"&G12&"','"&C12&"','V',"&I12&")"]]></f>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
@@ -4450,6 +4483,9 @@
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition13],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B13&","&A13&",'"&D13&"','"&E13&"','"&H13&"','"&F13&"','"&G13&"','"&C13&"','V',"&I13&")"]]></f>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
@@ -4476,6 +4512,9 @@
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition14],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B14&","&A14&",'"&D14&"','"&E14&"','"&H14&"','"&F14&"','"&G14&"','"&C14&"','V',"&I14&")"]]></f>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
@@ -4502,6 +4541,9 @@
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition15],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B15&","&A15&",'"&D15&"','"&E15&"','"&H15&"','"&F15&"','"&G15&"','"&C15&"','V',"&I15&")"]]></f>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
@@ -4528,6 +4570,9 @@
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition16],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B16&","&A16&",'"&D16&"','"&E16&"','"&H16&"','"&F16&"','"&G16&"','"&C16&"','V',"&I16&")"]]></f>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
@@ -4551,6 +4596,9 @@
       <c r="I17">
         <v>1</v>
       </c>
+      <c r="J17">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition17],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B17&","&A17&",'"&D17&"','"&E17&"','"&H17&"','"&F17&"','"&G17&"','"&C17&"','V',"&I17&")"]]></f>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
@@ -4577,6 +4625,9 @@
       <c r="I18">
         <v>0</v>
       </c>
+      <c r="J18">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition18],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B18&","&A18&",'"&D18&"','"&E18&"','"&H18&"','"&F18&"','"&G18&"','"&C18&"','V',"&I18&")"]]></f>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
@@ -4603,6 +4654,9 @@
       <c r="I19">
         <v>0</v>
       </c>
+      <c r="J19">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition19],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B19&","&A19&",'"&D19&"','"&E19&"','"&H19&"','"&F19&"','"&G19&"','"&C19&"','V',"&I19&")"]]></f>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
@@ -4629,6 +4683,9 @@
       <c r="I20">
         <v>0</v>
       </c>
+      <c r="J20">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition20],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B20&","&A20&",'"&D20&"','"&E20&"','"&H20&"','"&F20&"','"&G20&"','"&C20&"','V',"&I20&")"]]></f>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
@@ -4655,6 +4712,9 @@
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition21],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B21&","&A21&",'"&D21&"','"&E21&"','"&H21&"','"&F21&"','"&G21&"','"&C21&"','V',"&I21&")"]]></f>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
@@ -4678,6 +4738,9 @@
       <c r="I22">
         <v>1</v>
       </c>
+      <c r="J22">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition22],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B22&","&A22&",'"&D22&"','"&E22&"','"&H22&"','"&F22&"','"&G22&"','"&C22&"','V',"&I22&")"]]></f>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
@@ -4704,6 +4767,9 @@
       <c r="I23">
         <v>0</v>
       </c>
+      <c r="J23">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition23],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B23&","&A23&",'"&D23&"','"&E23&"','"&H23&"','"&F23&"','"&G23&"','"&C23&"','V',"&I23&")"]]></f>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
@@ -4727,6 +4793,9 @@
       <c r="I24">
         <v>1</v>
       </c>
+      <c r="J24">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition24],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B24&","&A24&",'"&D24&"','"&E24&"','"&H24&"','"&F24&"','"&G24&"','"&C24&"','V',"&I24&")"]]></f>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
@@ -4753,6 +4822,9 @@
       <c r="I25">
         <v>0</v>
       </c>
+      <c r="J25">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition25],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B25&","&A25&",'"&D25&"','"&E25&"','"&H25&"','"&F25&"','"&G25&"','"&C25&"','V',"&I25&")"]]></f>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
@@ -4779,6 +4851,9 @@
       <c r="I26">
         <v>0</v>
       </c>
+      <c r="J26">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition26],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B26&","&A26&",'"&D26&"','"&E26&"','"&H26&"','"&F26&"','"&G26&"','"&C26&"','V',"&I26&")"]]></f>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
@@ -4805,6 +4880,9 @@
       <c r="I27">
         <v>0</v>
       </c>
+      <c r="J27">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition27],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B27&","&A27&",'"&D27&"','"&E27&"','"&H27&"','"&F27&"','"&G27&"','"&C27&"','V',"&I27&")"]]></f>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
@@ -4831,6 +4909,9 @@
       <c r="I28">
         <v>0</v>
       </c>
+      <c r="J28">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition28],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B28&","&A28&",'"&D28&"','"&E28&"','"&H28&"','"&F28&"','"&G28&"','"&C28&"','V',"&I28&")"]]></f>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
@@ -4857,6 +4938,9 @@
       <c r="I29">
         <v>0</v>
       </c>
+      <c r="J29">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition29],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B29&","&A29&",'"&D29&"','"&E29&"','"&H29&"','"&F29&"','"&G29&"','"&C29&"','V',"&I29&")"]]></f>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
@@ -4883,6 +4967,9 @@
       <c r="I30">
         <v>0</v>
       </c>
+      <c r="J30">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition30],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B30&","&A30&",'"&D30&"','"&E30&"','"&H30&"','"&F30&"','"&G30&"','"&C30&"','V',"&I30&")"]]></f>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
@@ -4906,6 +4993,9 @@
       <c r="I31">
         <v>1</v>
       </c>
+      <c r="J31">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition31],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B31&","&A31&",'"&D31&"','"&E31&"','"&H31&"','"&F31&"','"&G31&"','"&C31&"','V',"&I31&")"]]></f>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
@@ -4932,6 +5022,9 @@
       <c r="I32">
         <v>0</v>
       </c>
+      <c r="J32">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition32],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B32&","&A32&",'"&D32&"','"&E32&"','"&H32&"','"&F32&"','"&G32&"','"&C32&"','V',"&I32&")"]]></f>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
@@ -4958,6 +5051,9 @@
       <c r="I33">
         <v>0</v>
       </c>
+      <c r="J33">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition33],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B33&","&A33&",'"&D33&"','"&E33&"','"&H33&"','"&F33&"','"&G33&"','"&C33&"','V',"&I33&")"]]></f>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
@@ -4984,6 +5080,9 @@
       <c r="I34">
         <v>0</v>
       </c>
+      <c r="J34">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition34],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B34&","&A34&",'"&D34&"','"&E34&"','"&H34&"','"&F34&"','"&G34&"','"&C34&"','V',"&I34&")"]]></f>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
@@ -5010,6 +5109,9 @@
       <c r="I35">
         <v>0</v>
       </c>
+      <c r="J35">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition35],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B35&","&A35&",'"&D35&"','"&E35&"','"&H35&"','"&F35&"','"&G35&"','"&C35&"','V',"&I35&")"]]></f>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
@@ -5036,6 +5138,9 @@
       <c r="I36">
         <v>0</v>
       </c>
+      <c r="J36">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition36],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B36&","&A36&",'"&D36&"','"&E36&"','"&H36&"','"&F36&"','"&G36&"','"&C36&"','V',"&I36&")"]]></f>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
@@ -5062,6 +5167,9 @@
       <c r="I37">
         <v>0</v>
       </c>
+      <c r="J37">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition37],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B37&","&A37&",'"&D37&"','"&E37&"','"&H37&"','"&F37&"','"&G37&"','"&C37&"','V',"&I37&")"]]></f>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
@@ -5088,6 +5196,9 @@
       <c r="I38">
         <v>0</v>
       </c>
+      <c r="J38">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition38],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B38&","&A38&",'"&D38&"','"&E38&"','"&H38&"','"&F38&"','"&G38&"','"&C38&"','V',"&I38&")"]]></f>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
@@ -5114,6 +5225,9 @@
       <c r="I39">
         <v>0</v>
       </c>
+      <c r="J39">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition39],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B39&","&A39&",'"&D39&"','"&E39&"','"&H39&"','"&F39&"','"&G39&"','"&C39&"','V',"&I39&")"]]></f>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
@@ -5140,6 +5254,9 @@
       <c r="I40">
         <v>0</v>
       </c>
+      <c r="J40">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition40],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B40&","&A40&",'"&D40&"','"&E40&"','"&H40&"','"&F40&"','"&G40&"','"&C40&"','V',"&I40&")"]]></f>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
@@ -5166,6 +5283,9 @@
       <c r="I41">
         <v>0</v>
       </c>
+      <c r="J41">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition41],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B41&","&A41&",'"&D41&"','"&E41&"','"&H41&"','"&F41&"','"&G41&"','"&C41&"','V',"&I41&")"]]></f>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
@@ -5192,6 +5312,9 @@
       <c r="I42">
         <v>0</v>
       </c>
+      <c r="J42">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition42],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B42&","&A42&",'"&D42&"','"&E42&"','"&H42&"','"&F42&"','"&G42&"','"&C42&"','V',"&I42&")"]]></f>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
@@ -5215,6 +5338,9 @@
       <c r="I43">
         <v>1</v>
       </c>
+      <c r="J43">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition43],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B43&","&A43&",'"&D43&"','"&E43&"','"&H43&"','"&F43&"','"&G43&"','"&C43&"','V',"&I43&")"]]></f>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
@@ -5241,6 +5367,9 @@
       <c r="I44">
         <v>0</v>
       </c>
+      <c r="J44">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition44],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B44&","&A44&",'"&D44&"','"&E44&"','"&H44&"','"&F44&"','"&G44&"','"&C44&"','V',"&I44&")"]]></f>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
@@ -5264,6 +5393,9 @@
       <c r="I45">
         <v>1</v>
       </c>
+      <c r="J45">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition45],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B45&","&A45&",'"&D45&"','"&E45&"','"&H45&"','"&F45&"','"&G45&"','"&C45&"','V',"&I45&")"]]></f>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
@@ -5290,6 +5422,9 @@
       <c r="I46">
         <v>0</v>
       </c>
+      <c r="J46">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition46],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B46&","&A46&",'"&D46&"','"&E46&"','"&H46&"','"&F46&"','"&G46&"','"&C46&"','V',"&I46&")"]]></f>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
@@ -5316,6 +5451,9 @@
       <c r="I47">
         <v>0</v>
       </c>
+      <c r="J47">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition47],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B47&","&A47&",'"&D47&"','"&E47&"','"&H47&"','"&F47&"','"&G47&"','"&C47&"','V',"&I47&")"]]></f>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
@@ -5342,6 +5480,9 @@
       <c r="I48">
         <v>0</v>
       </c>
+      <c r="J48">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition48],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B48&","&A48&",'"&D48&"','"&E48&"','"&H48&"','"&F48&"','"&G48&"','"&C48&"','V',"&I48&")"]]></f>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
@@ -5368,6 +5509,9 @@
       <c r="I49">
         <v>0</v>
       </c>
+      <c r="J49">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition49],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B49&","&A49&",'"&D49&"','"&E49&"','"&H49&"','"&F49&"','"&G49&"','"&C49&"','V',"&I49&")"]]></f>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
@@ -5394,6 +5538,9 @@
       <c r="I50">
         <v>0</v>
       </c>
+      <c r="J50">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition50],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B50&","&A50&",'"&D50&"','"&E50&"','"&H50&"','"&F50&"','"&G50&"','"&C50&"','V',"&I50&")"]]></f>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
@@ -5420,6 +5567,9 @@
       <c r="I51">
         <v>0</v>
       </c>
+      <c r="J51">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition51],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B51&","&A51&",'"&D51&"','"&E51&"','"&H51&"','"&F51&"','"&G51&"','"&C51&"','V',"&I51&")"]]></f>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
@@ -5446,6 +5596,9 @@
       <c r="I52">
         <v>0</v>
       </c>
+      <c r="J52">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition52],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B52&","&A52&",'"&D52&"','"&E52&"','"&H52&"','"&F52&"','"&G52&"','"&C52&"','V',"&I52&")"]]></f>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
@@ -5472,6 +5625,9 @@
       <c r="I53">
         <v>0</v>
       </c>
+      <c r="J53">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition53],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B53&","&A53&",'"&D53&"','"&E53&"','"&H53&"','"&F53&"','"&G53&"','"&C53&"','V',"&I53&")"]]></f>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
@@ -5498,6 +5654,9 @@
       <c r="I54">
         <v>0</v>
       </c>
+      <c r="J54">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition54],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B54&","&A54&",'"&D54&"','"&E54&"','"&H54&"','"&F54&"','"&G54&"','"&C54&"','V',"&I54&")"]]></f>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
@@ -5524,6 +5683,9 @@
       <c r="I55">
         <v>0</v>
       </c>
+      <c r="J55">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition55],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B55&","&A55&",'"&D55&"','"&E55&"','"&H55&"','"&F55&"','"&G55&"','"&C55&"','V',"&I55&")"]]></f>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
@@ -5550,6 +5712,9 @@
       <c r="I56">
         <v>0</v>
       </c>
+      <c r="J56">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition56],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B56&","&A56&",'"&D56&"','"&E56&"','"&H56&"','"&F56&"','"&G56&"','"&C56&"','V',"&I56&")"]]></f>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
@@ -5573,6 +5738,9 @@
       <c r="I57">
         <v>1</v>
       </c>
+      <c r="J57">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition57],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B57&","&A57&",'"&D57&"','"&E57&"','"&H57&"','"&F57&"','"&G57&"','"&C57&"','V',"&I57&")"]]></f>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
@@ -5599,6 +5767,9 @@
       <c r="I58">
         <v>0</v>
       </c>
+      <c r="J58">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition58],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B58&","&A58&",'"&D58&"','"&E58&"','"&H58&"','"&F58&"','"&G58&"','"&C58&"','V',"&I58&")"]]></f>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
@@ -5625,6 +5796,9 @@
       <c r="I59">
         <v>0</v>
       </c>
+      <c r="J59">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition59],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B59&","&A59&",'"&D59&"','"&E59&"','"&H59&"','"&F59&"','"&G59&"','"&C59&"','V',"&I59&")"]]></f>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
@@ -5651,6 +5825,9 @@
       <c r="I60">
         <v>0</v>
       </c>
+      <c r="J60">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition60],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B60&","&A60&",'"&D60&"','"&E60&"','"&H60&"','"&F60&"','"&G60&"','"&C60&"','V',"&I60&")"]]></f>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
@@ -5677,6 +5854,9 @@
       <c r="I61">
         <v>0</v>
       </c>
+      <c r="J61">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition61],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B61&","&A61&",'"&D61&"','"&E61&"','"&H61&"','"&F61&"','"&G61&"','"&C61&"','V',"&I61&")"]]></f>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
@@ -5703,6 +5883,9 @@
       <c r="I62">
         <v>0</v>
       </c>
+      <c r="J62">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition62],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B62&","&A62&",'"&D62&"','"&E62&"','"&H62&"','"&F62&"','"&G62&"','"&C62&"','V',"&I62&")"]]></f>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
@@ -5729,6 +5912,9 @@
       <c r="I63">
         <v>0</v>
       </c>
+      <c r="J63">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition63],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B63&","&A63&",'"&D63&"','"&E63&"','"&H63&"','"&F63&"','"&G63&"','"&C63&"','V',"&I63&")"]]></f>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
@@ -5755,6 +5941,9 @@
       <c r="I64">
         <v>0</v>
       </c>
+      <c r="J64">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition64],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B64&","&A64&",'"&D64&"','"&E64&"','"&H64&"','"&F64&"','"&G64&"','"&C64&"','V',"&I64&")"]]></f>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
@@ -5781,6 +5970,9 @@
       <c r="I65">
         <v>0</v>
       </c>
+      <c r="J65">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition65],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B65&","&A65&",'"&D65&"','"&E65&"','"&H65&"','"&F65&"','"&G65&"','"&C65&"','V',"&I65&")"]]></f>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
@@ -5807,6 +5999,9 @@
       <c r="I66">
         <v>0</v>
       </c>
+      <c r="J66">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition66],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B66&","&A66&",'"&D66&"','"&E66&"','"&H66&"','"&F66&"','"&G66&"','"&C66&"','V',"&I66&")"]]></f>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
@@ -5830,6 +6025,9 @@
       <c r="I67">
         <v>1</v>
       </c>
+      <c r="J67">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition67],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B67&","&A67&",'"&D67&"','"&E67&"','"&H67&"','"&F67&"','"&G67&"','"&C67&"','V',"&I67&")"]]></f>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
@@ -5856,6 +6054,9 @@
       <c r="I68">
         <v>0</v>
       </c>
+      <c r="J68">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition68],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B68&","&A68&",'"&D68&"','"&E68&"','"&H68&"','"&F68&"','"&G68&"','"&C68&"','V',"&I68&")"]]></f>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
@@ -5882,6 +6083,9 @@
       <c r="I69">
         <v>0</v>
       </c>
+      <c r="J69">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition69],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B69&","&A69&",'"&D69&"','"&E69&"','"&H69&"','"&F69&"','"&G69&"','"&C69&"','V',"&I69&")"]]></f>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
@@ -5908,6 +6112,9 @@
       <c r="I70">
         <v>0</v>
       </c>
+      <c r="J70">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition70],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B70&","&A70&",'"&D70&"','"&E70&"','"&H70&"','"&F70&"','"&G70&"','"&C70&"','V',"&I70&")"]]></f>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
@@ -5934,6 +6141,9 @@
       <c r="I71">
         <v>0</v>
       </c>
+      <c r="J71">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition71],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B71&","&A71&",'"&D71&"','"&E71&"','"&H71&"','"&F71&"','"&G71&"','"&C71&"','V',"&I71&")"]]></f>
+      </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
@@ -5960,6 +6170,9 @@
       <c r="I72">
         <v>0</v>
       </c>
+      <c r="J72">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition72],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B72&","&A72&",'"&D72&"','"&E72&"','"&H72&"','"&F72&"','"&G72&"','"&C72&"','V',"&I72&")"]]></f>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
@@ -5986,6 +6199,9 @@
       <c r="I73">
         <v>0</v>
       </c>
+      <c r="J73">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition73],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B73&","&A73&",'"&D73&"','"&E73&"','"&H73&"','"&F73&"','"&G73&"','"&C73&"','V',"&I73&")"]]></f>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
@@ -6012,6 +6228,9 @@
       <c r="I74">
         <v>0</v>
       </c>
+      <c r="J74">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition74],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B74&","&A74&",'"&D74&"','"&E74&"','"&H74&"','"&F74&"','"&G74&"','"&C74&"','V',"&I74&")"]]></f>
+      </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
@@ -6035,6 +6254,9 @@
       <c r="I75">
         <v>1</v>
       </c>
+      <c r="J75">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition75],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B75&","&A75&",'"&D75&"','"&E75&"','"&H75&"','"&F75&"','"&G75&"','"&C75&"','V',"&I75&")"]]></f>
+      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
@@ -6061,6 +6283,9 @@
       <c r="I76">
         <v>0</v>
       </c>
+      <c r="J76">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition76],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B76&","&A76&",'"&D76&"','"&E76&"','"&H76&"','"&F76&"','"&G76&"','"&C76&"','V',"&I76&")"]]></f>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
@@ -6087,6 +6312,9 @@
       <c r="I77">
         <v>0</v>
       </c>
+      <c r="J77">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition77],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B77&","&A77&",'"&D77&"','"&E77&"','"&H77&"','"&F77&"','"&G77&"','"&C77&"','V',"&I77&")"]]></f>
+      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
@@ -6113,6 +6341,9 @@
       <c r="I78">
         <v>0</v>
       </c>
+      <c r="J78">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition78],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B78&","&A78&",'"&D78&"','"&E78&"','"&H78&"','"&F78&"','"&G78&"','"&C78&"','V',"&I78&")"]]></f>
+      </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
@@ -6139,6 +6370,9 @@
       <c r="I79">
         <v>0</v>
       </c>
+      <c r="J79">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition79],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B79&","&A79&",'"&D79&"','"&E79&"','"&H79&"','"&F79&"','"&G79&"','"&C79&"','V',"&I79&")"]]></f>
+      </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
@@ -6165,6 +6399,9 @@
       <c r="I80">
         <v>0</v>
       </c>
+      <c r="J80">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition80],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B80&","&A80&",'"&D80&"','"&E80&"','"&H80&"','"&F80&"','"&G80&"','"&C80&"','V',"&I80&")"]]></f>
+      </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
@@ -6191,6 +6428,9 @@
       <c r="I81">
         <v>0</v>
       </c>
+      <c r="J81">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition81],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B81&","&A81&",'"&D81&"','"&E81&"','"&H81&"','"&F81&"','"&G81&"','"&C81&"','V',"&I81&")"]]></f>
+      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
@@ -6217,6 +6457,9 @@
       <c r="I82">
         <v>0</v>
       </c>
+      <c r="J82">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition82],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B82&","&A82&",'"&D82&"','"&E82&"','"&H82&"','"&F82&"','"&G82&"','"&C82&"','V',"&I82&")"]]></f>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
@@ -6243,6 +6486,9 @@
       <c r="I83">
         <v>0</v>
       </c>
+      <c r="J83">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition83],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B83&","&A83&",'"&D83&"','"&E83&"','"&H83&"','"&F83&"','"&G83&"','"&C83&"','V',"&I83&")"]]></f>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
@@ -6269,6 +6515,9 @@
       <c r="I84">
         <v>0</v>
       </c>
+      <c r="J84">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition84],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B84&","&A84&",'"&D84&"','"&E84&"','"&H84&"','"&F84&"','"&G84&"','"&C84&"','V',"&I84&")"]]></f>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
@@ -6295,6 +6544,9 @@
       <c r="I85">
         <v>0</v>
       </c>
+      <c r="J85">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition85],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B85&","&A85&",'"&D85&"','"&E85&"','"&H85&"','"&F85&"','"&G85&"','"&C85&"','V',"&I85&")"]]></f>
+      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
@@ -6321,6 +6573,9 @@
       <c r="I86">
         <v>0</v>
       </c>
+      <c r="J86">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition86],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B86&","&A86&",'"&D86&"','"&E86&"','"&H86&"','"&F86&"','"&G86&"','"&C86&"','V',"&I86&")"]]></f>
+      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
@@ -6347,6 +6602,9 @@
       <c r="I87">
         <v>0</v>
       </c>
+      <c r="J87">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition87],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B87&","&A87&",'"&D87&"','"&E87&"','"&H87&"','"&F87&"','"&G87&"','"&C87&"','V',"&I87&")"]]></f>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
@@ -6373,6 +6631,9 @@
       <c r="I88">
         <v>0</v>
       </c>
+      <c r="J88">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition88],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B88&","&A88&",'"&D88&"','"&E88&"','"&H88&"','"&F88&"','"&G88&"','"&C88&"','V',"&I88&")"]]></f>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
@@ -6399,6 +6660,9 @@
       <c r="I89">
         <v>0</v>
       </c>
+      <c r="J89">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition89],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B89&","&A89&",'"&D89&"','"&E89&"','"&H89&"','"&F89&"','"&G89&"','"&C89&"','V',"&I89&")"]]></f>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
@@ -6422,6 +6686,9 @@
       <c r="I90">
         <v>1</v>
       </c>
+      <c r="J90">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition90],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B90&","&A90&",'"&D90&"','"&E90&"','"&H90&"','"&F90&"','"&G90&"','"&C90&"','V',"&I90&")"]]></f>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
@@ -6448,6 +6715,9 @@
       <c r="I91">
         <v>0</v>
       </c>
+      <c r="J91">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition91],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B91&","&A91&",'"&D91&"','"&E91&"','"&H91&"','"&F91&"','"&G91&"','"&C91&"','V',"&I91&")"]]></f>
+      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
@@ -6474,6 +6744,9 @@
       <c r="I92">
         <v>0</v>
       </c>
+      <c r="J92">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition92],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B92&","&A92&",'"&D92&"','"&E92&"','"&H92&"','"&F92&"','"&G92&"','"&C92&"','V',"&I92&")"]]></f>
+      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
@@ -6497,6 +6770,9 @@
       <c r="I93">
         <v>1</v>
       </c>
+      <c r="J93">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition93],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B93&","&A93&",'"&D93&"','"&E93&"','"&H93&"','"&F93&"','"&G93&"','"&C93&"','V',"&I93&")"]]></f>
+      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
@@ -6523,6 +6799,9 @@
       <c r="I94">
         <v>0</v>
       </c>
+      <c r="J94">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition94],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B94&","&A94&",'"&D94&"','"&E94&"','"&H94&"','"&F94&"','"&G94&"','"&C94&"','V',"&I94&")"]]></f>
+      </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
@@ -6549,6 +6828,9 @@
       <c r="I95">
         <v>0</v>
       </c>
+      <c r="J95">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition95],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B95&","&A95&",'"&D95&"','"&E95&"','"&H95&"','"&F95&"','"&G95&"','"&C95&"','V',"&I95&")"]]></f>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
@@ -6575,6 +6857,9 @@
       <c r="I96">
         <v>0</v>
       </c>
+      <c r="J96">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition96],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B96&","&A96&",'"&D96&"','"&E96&"','"&H96&"','"&F96&"','"&G96&"','"&C96&"','V',"&I96&")"]]></f>
+      </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
@@ -6601,6 +6886,9 @@
       <c r="I97">
         <v>0</v>
       </c>
+      <c r="J97">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition97],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B97&","&A97&",'"&D97&"','"&E97&"','"&H97&"','"&F97&"','"&G97&"','"&C97&"','V',"&I97&")"]]></f>
+      </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
@@ -6624,6 +6912,9 @@
       <c r="I98">
         <v>1</v>
       </c>
+      <c r="J98">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition98],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B98&","&A98&",'"&D98&"','"&E98&"','"&H98&"','"&F98&"','"&G98&"','"&C98&"','V',"&I98&")"]]></f>
+      </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
@@ -6650,6 +6941,9 @@
       <c r="I99">
         <v>0</v>
       </c>
+      <c r="J99">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition99],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B99&","&A99&",'"&D99&"','"&E99&"','"&H99&"','"&F99&"','"&G99&"','"&C99&"','V',"&I99&")"]]></f>
+      </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
@@ -6676,6 +6970,9 @@
       <c r="I100">
         <v>0</v>
       </c>
+      <c r="J100">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition100],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B100&","&A100&",'"&D100&"','"&E100&"','"&H100&"','"&F100&"','"&G100&"','"&C100&"','V',"&I100&")"]]></f>
+      </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
@@ -6699,6 +6996,9 @@
       <c r="I101">
         <v>1</v>
       </c>
+      <c r="J101">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition101],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B101&","&A101&",'"&D101&"','"&E101&"','"&H101&"','"&F101&"','"&G101&"','"&C101&"','V',"&I101&")"]]></f>
+      </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
@@ -6725,6 +7025,9 @@
       <c r="I102">
         <v>0</v>
       </c>
+      <c r="J102">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition102],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B102&","&A102&",'"&D102&"','"&E102&"','"&H102&"','"&F102&"','"&G102&"','"&C102&"','V',"&I102&")"]]></f>
+      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
@@ -6748,6 +7051,9 @@
       <c r="I103">
         <v>1</v>
       </c>
+      <c r="J103">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition103],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B103&","&A103&",'"&D103&"','"&E103&"','"&H103&"','"&F103&"','"&G103&"','"&C103&"','V',"&I103&")"]]></f>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
@@ -6774,6 +7080,9 @@
       <c r="I104">
         <v>0</v>
       </c>
+      <c r="J104">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition104],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B104&","&A104&",'"&D104&"','"&E104&"','"&H104&"','"&F104&"','"&G104&"','"&C104&"','V',"&I104&")"]]></f>
+      </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
@@ -6800,6 +7109,9 @@
       <c r="I105">
         <v>0</v>
       </c>
+      <c r="J105">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition105],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B105&","&A105&",'"&D105&"','"&E105&"','"&H105&"','"&F105&"','"&G105&"','"&C105&"','V',"&I105&")"]]></f>
+      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
@@ -6826,6 +7138,9 @@
       <c r="I106">
         <v>0</v>
       </c>
+      <c r="J106">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition106],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B106&","&A106&",'"&D106&"','"&E106&"','"&H106&"','"&F106&"','"&G106&"','"&C106&"','V',"&I106&")"]]></f>
+      </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
@@ -6852,6 +7167,9 @@
       <c r="I107">
         <v>0</v>
       </c>
+      <c r="J107">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition107],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B107&","&A107&",'"&D107&"','"&E107&"','"&H107&"','"&F107&"','"&G107&"','"&C107&"','V',"&I107&")"]]></f>
+      </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
@@ -6878,6 +7196,9 @@
       <c r="I108">
         <v>0</v>
       </c>
+      <c r="J108">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition108],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B108&","&A108&",'"&D108&"','"&E108&"','"&H108&"','"&F108&"','"&G108&"','"&C108&"','V',"&I108&")"]]></f>
+      </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
@@ -6904,6 +7225,9 @@
       <c r="I109">
         <v>0</v>
       </c>
+      <c r="J109">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition109],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B109&","&A109&",'"&D109&"','"&E109&"','"&H109&"','"&F109&"','"&G109&"','"&C109&"','V',"&I109&")"]]></f>
+      </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
@@ -6930,6 +7254,9 @@
       <c r="I110">
         <v>0</v>
       </c>
+      <c r="J110">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition110],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B110&","&A110&",'"&D110&"','"&E110&"','"&H110&"','"&F110&"','"&G110&"','"&C110&"','V',"&I110&")"]]></f>
+      </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
@@ -6953,6 +7280,9 @@
       <c r="I111">
         <v>1</v>
       </c>
+      <c r="J111">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition111],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B111&","&A111&",'"&D111&"','"&E111&"','"&H111&"','"&F111&"','"&G111&"','"&C111&"','V',"&I111&")"]]></f>
+      </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
@@ -6979,6 +7309,9 @@
       <c r="I112">
         <v>0</v>
       </c>
+      <c r="J112">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition112],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B112&","&A112&",'"&D112&"','"&E112&"','"&H112&"','"&F112&"','"&G112&"','"&C112&"','V',"&I112&")"]]></f>
+      </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
@@ -7005,6 +7338,9 @@
       <c r="I113">
         <v>1</v>
       </c>
+      <c r="J113">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition113],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B113&","&A113&",'"&D113&"','"&E113&"','"&H113&"','"&F113&"','"&G113&"','"&C113&"','V',"&I113&")"]]></f>
+      </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
@@ -7031,6 +7367,9 @@
       <c r="I114">
         <v>0</v>
       </c>
+      <c r="J114">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition114],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B114&","&A114&",'"&D114&"','"&E114&"','"&H114&"','"&F114&"','"&G114&"','"&C114&"','V',"&I114&")"]]></f>
+      </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
@@ -7057,6 +7396,9 @@
       <c r="I115">
         <v>0</v>
       </c>
+      <c r="J115">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition115],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B115&","&A115&",'"&D115&"','"&E115&"','"&H115&"','"&F115&"','"&G115&"','"&C115&"','V',"&I115&")"]]></f>
+      </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
@@ -7083,6 +7425,9 @@
       <c r="I116">
         <v>0</v>
       </c>
+      <c r="J116">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition116],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B116&","&A116&",'"&D116&"','"&E116&"','"&H116&"','"&F116&"','"&G116&"','"&C116&"','V',"&I116&")"]]></f>
+      </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
@@ -7109,6 +7454,9 @@
       <c r="I117">
         <v>0</v>
       </c>
+      <c r="J117">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition117],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B117&","&A117&",'"&D117&"','"&E117&"','"&H117&"','"&F117&"','"&G117&"','"&C117&"','V',"&I117&")"]]></f>
+      </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
@@ -7132,6 +7480,9 @@
       <c r="I118">
         <v>1</v>
       </c>
+      <c r="J118">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition118],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B118&","&A118&",'"&D118&"','"&E118&"','"&H118&"','"&F118&"','"&G118&"','"&C118&"','V',"&I118&")"]]></f>
+      </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
@@ -7158,6 +7509,9 @@
       <c r="I119">
         <v>0</v>
       </c>
+      <c r="J119">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition119],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B119&","&A119&",'"&D119&"','"&E119&"','"&H119&"','"&F119&"','"&G119&"','"&C119&"','V',"&I119&")"]]></f>
+      </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
@@ -7184,6 +7538,9 @@
       <c r="I120">
         <v>0</v>
       </c>
+      <c r="J120">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition120],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B120&","&A120&",'"&D120&"','"&E120&"','"&H120&"','"&F120&"','"&G120&"','"&C120&"','V',"&I120&")"]]></f>
+      </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
@@ -7210,6 +7567,9 @@
       <c r="I121">
         <v>0</v>
       </c>
+      <c r="J121">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition121],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B121&","&A121&",'"&D121&"','"&E121&"','"&H121&"','"&F121&"','"&G121&"','"&C121&"','V',"&I121&")"]]></f>
+      </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
@@ -7236,6 +7596,9 @@
       <c r="I122">
         <v>0</v>
       </c>
+      <c r="J122">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition122],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B122&","&A122&",'"&D122&"','"&E122&"','"&H122&"','"&F122&"','"&G122&"','"&C122&"','V',"&I122&")"]]></f>
+      </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
@@ -7259,6 +7622,9 @@
       <c r="I123">
         <v>1</v>
       </c>
+      <c r="J123">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition123],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B123&","&A123&",'"&D123&"','"&E123&"','"&H123&"','"&F123&"','"&G123&"','"&C123&"','V',"&I123&")"]]></f>
+      </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
@@ -7285,6 +7651,9 @@
       <c r="I124">
         <v>0</v>
       </c>
+      <c r="J124">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition124],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B124&","&A124&",'"&D124&"','"&E124&"','"&H124&"','"&F124&"','"&G124&"','"&C124&"','V',"&I124&")"]]></f>
+      </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
@@ -7311,6 +7680,9 @@
       <c r="I125">
         <v>0</v>
       </c>
+      <c r="J125">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition125],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B125&","&A125&",'"&D125&"','"&E125&"','"&H125&"','"&F125&"','"&G125&"','"&C125&"','V',"&I125&")"]]></f>
+      </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
@@ -7337,6 +7709,9 @@
       <c r="I126">
         <v>0</v>
       </c>
+      <c r="J126">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition126],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B126&","&A126&",'"&D126&"','"&E126&"','"&H126&"','"&F126&"','"&G126&"','"&C126&"','V',"&I126&")"]]></f>
+      </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
@@ -7363,6 +7738,9 @@
       <c r="I127">
         <v>0</v>
       </c>
+      <c r="J127">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition127],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B127&","&A127&",'"&D127&"','"&E127&"','"&H127&"','"&F127&"','"&G127&"','"&C127&"','V',"&I127&")"]]></f>
+      </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
@@ -7389,6 +7767,9 @@
       <c r="I128">
         <v>0</v>
       </c>
+      <c r="J128">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition128],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B128&","&A128&",'"&D128&"','"&E128&"','"&H128&"','"&F128&"','"&G128&"','"&C128&"','V',"&I128&")"]]></f>
+      </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129">
@@ -7415,6 +7796,9 @@
       <c r="I129">
         <v>0</v>
       </c>
+      <c r="J129">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition129],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B129&","&A129&",'"&D129&"','"&E129&"','"&H129&"','"&F129&"','"&G129&"','"&C129&"','V',"&I129&")"]]></f>
+      </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
@@ -7438,6 +7822,9 @@
       <c r="I130">
         <v>1</v>
       </c>
+      <c r="J130">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition130],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B130&","&A130&",'"&D130&"','"&E130&"','"&H130&"','"&F130&"','"&G130&"','"&C130&"','V',"&I130&")"]]></f>
+      </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
@@ -7464,6 +7851,9 @@
       <c r="I131">
         <v>0</v>
       </c>
+      <c r="J131">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition131],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B131&","&A131&",'"&D131&"','"&E131&"','"&H131&"','"&F131&"','"&G131&"','"&C131&"','V',"&I131&")"]]></f>
+      </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
@@ -7490,34 +7880,37 @@
       <c r="I132">
         <v>0</v>
       </c>
+      <c r="J132">
+        <f><![CDATA["insert into gtr_tier1_regular_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition132],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B132&","&A132&",'"&D132&"','"&E132&"','"&H132&"','"&F132&"','"&G132&"','"&C132&"','V',"&I132&")"]]></f>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D1" pane="bottomLeft" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="8.875" style="6" collapsed="1"/>
-    <col min="4" max="4" width="45.5" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.875" style="6" collapsed="1"/>
-    <col min="6" max="6" width="16.25" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.25" style="6" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="8.875" style="6" collapsed="1"/>
+    <col min="1" max="3" style="6" width="8.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="45.5" collapsed="true"/>
+    <col min="5" max="5" style="6" width="8.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="16.25" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="23.25" collapsed="true"/>
+    <col min="8" max="9" style="6" width="8.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row ht="15" r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7546,7 +7939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row ht="15" r="2" spans="1:10">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -7573,11 +7966,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="str">
-        <f t="shared" ref="J2:J33" si="0">"insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&amp;B2&amp;","&amp;A2&amp;",'"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;H2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;C2&amp;"','V',"&amp;I2&amp;")"</f>
+        <f ref="J2:J33" si="0" t="shared"><![CDATA["insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B2&","&A2&",'"&D2&"','"&E2&"','"&H2&"','"&F2&"','"&G2&"','"&C2&"','V',"&I2&")"]]></f>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002310|IFBS001320|IFBS100685','','Null','IFBS100685','IFBS002310-IFBS001320','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row ht="15" r="3" spans="1:10">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -7602,11 +7995,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002310|IFBS001320|IFBS100685','','','IFBS100685','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row ht="15" r="4" spans="1:10">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -7633,11 +8026,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000320|IFBS000300|IFBS002667|IFBS000310','','Null','IFBS000310','IFBS000320-IFBS000300-IFBS002667','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row ht="15" r="5" spans="1:10">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -7662,11 +8055,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000320|IFBS000300|IFBS002667|IFBS000310','','','IFBS000310','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row ht="15" r="6" spans="1:10">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -7693,11 +8086,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS001690|IFBS002677|IFBS002631|IFBS002712','','Null','IFBS002712','IFBS001690-IFBS002677-IFBS002631','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row ht="15" r="7" spans="1:10">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -7722,11 +8115,11 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS001690|IFBS002677|IFBS002631|IFBS002712','','','IFBS002712','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row ht="15" r="8" spans="1:10">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -7753,11 +8146,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS200660|IFBS000020|IFBS002250|IFBS002727|IFBS001680','','Null','IFBS001680','IFBS200660-IFBS000020-IFBS002250-IFBS002727','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row ht="15" r="9" spans="1:10">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -7782,11 +8175,11 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS200660|IFBS000020|IFBS002250|IFBS002727|IFBS001680','','','IFBS001680','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row ht="15" r="10" spans="1:10">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -7813,11 +8206,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000470|IFBS000320|IFBS001690|IFBS002607|IFBS200660|IFBS100688|IFBS200665|IFBS000680|IFBS001550','','Null','IFBS001550','IFBS000470-IFBS000320-IFBS001690-IFBS002607-IFBS200660-IFBS100688-IFBS200665-IFBS000680','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row ht="15" r="11" spans="1:10">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -7842,11 +8235,11 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000470|IFBS000320|IFBS001690|IFBS002607|IFBS200660|IFBS100688|IFBS200665|IFBS000680|IFBS001550','','','IFBS001550','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row ht="15" r="12" spans="1:10">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -7873,11 +8266,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS001290|IFBS002695|IFBS002844|IFBS100697|IFBS100698','','Null','IFBS100698','IFBS001290-IFBS002695-IFBS002844-IFBS100697','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row ht="15" r="13" spans="1:10">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -7902,11 +8295,11 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS001290|IFBS002695|IFBS002844|IFBS100697|IFBS100698','','','IFBS100698','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row ht="15" r="14" spans="1:10">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -7933,11 +8326,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS100735|IFBS002961|IFBS100699|IFBS002862','','Null','IFBS002862','IFBS100735-IFBS002961-IFBS100699','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row ht="15" r="15" spans="1:10">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -7962,11 +8355,11 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS100735|IFBS002961|IFBS100699|IFBS002862','','','IFBS002862','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row ht="15" r="16" spans="1:10">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -7993,11 +8386,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000480|IFBS002694|IFBS100690|IFBS100691','','Null','IFBS100691','IFBS000480-IFBS002694-IFBS100690','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row ht="15" r="17" spans="1:10">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -8022,11 +8415,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000480|IFBS002694|IFBS100690|IFBS100691','','','IFBS100691','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row ht="15" r="18" spans="1:10">
       <c r="A18" s="7">
         <v>1</v>
       </c>
@@ -8053,11 +8446,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002716|IFBS002541|IFBS001710','','Null','IFBS001710','IFBS002716-IFBS002541','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row ht="15" r="19" spans="1:10">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -8082,11 +8475,11 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002716|IFBS002541|IFBS001710','','','IFBS001710','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row ht="15" r="20" spans="1:10">
       <c r="A20" s="7">
         <v>1</v>
       </c>
@@ -8113,11 +8506,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000500|IFBS100734|IFBS002716|IFBS001890|IFBS000610|IFBS003145|IFBS001570','','Null','IFBS001570','IFBS000500-IFBS100734-IFBS002716-IFBS001890-IFBS000610-IFBS003145','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row ht="15" r="21" spans="1:10">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -8142,11 +8535,11 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000500|IFBS100734|IFBS002716|IFBS001890|IFBS000610|IFBS003145|IFBS001570','','','IFBS001570','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row ht="15" r="22" spans="1:10">
       <c r="A22" s="7">
         <v>1</v>
       </c>
@@ -8173,11 +8566,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000290','','Null','IFBS000400','IFBS000290-IFBS001800-IFBS000140','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row ht="15" r="23" spans="1:10">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -8202,11 +8595,11 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS000290','','','IFBS000400','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row ht="15" r="24" spans="1:10">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -8233,11 +8626,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002737|IFBS003345|IFBS003346|IFBS002759|IFBS002741|IFBS002778|IFBS100701','','Null','IFBS100701','IFBS002737-IFBS003345-IFBS003346-IFBS002759-IFBS002741-IFBS002778','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row ht="15" r="25" spans="1:10">
       <c r="A25" s="7">
         <v>1</v>
       </c>
@@ -8262,11 +8655,11 @@
         <v>1</v>
       </c>
       <c r="J25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002737|IFBS003345|IFBS003346|IFBS002759|IFBS002741|IFBS002778|IFBS100701','','','IFBS100701','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row ht="15" r="26" spans="1:10">
       <c r="A26" s="7">
         <v>1</v>
       </c>
@@ -8293,11 +8686,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS000520|IFIS001873|IFIS200130|IFIS002227','','Null','IFIS001130','IFIS000520+IFIS001873+IFIS200130+IFIS002227','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row ht="15" r="27" spans="1:10">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -8324,11 +8717,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS000520|IFIS002444|IFIS002447|IFIS002452','','Null','IFIS002452','IFIS000520-IFIS002444-IFIS002447','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row ht="15" r="28" spans="1:10">
       <c r="A28" s="7">
         <v>1</v>
       </c>
@@ -8353,11 +8746,11 @@
         <v>1</v>
       </c>
       <c r="J28" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS000520|IFIS002444|IFIS002447|IFIS002452','','','IFIS002452','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row ht="15" r="29" spans="1:10">
       <c r="A29" s="7">
         <v>1</v>
       </c>
@@ -8384,11 +8777,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS001873|IFIS002454|IFIS002455|IFIS002460','','Null','IFIS002460','IFIS001873-IFIS002454-IFIS002455','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row ht="15" r="30" spans="1:10">
       <c r="A30" s="7">
         <v>1</v>
       </c>
@@ -8413,11 +8806,11 @@
         <v>1</v>
       </c>
       <c r="J30" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS001873|IFIS002454|IFIS002455|IFIS002460','','','IFIS002460','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row ht="15" r="31" spans="1:10">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -8444,11 +8837,11 @@
         <v>0</v>
       </c>
       <c r="J31" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS003149|IFIS003205|IFIS002423|IFIS101183|IFIS002439|IFIS001210|IFIS001600|IFIS003196|IFIS003191|IFIS002004|IFIS003156|IFIS003160|IFIS002440|IFIS001690|IFIS003155|IFIS001835|IFIS002503|IFIS002504|IFIS002027|IFIS002422|IFIS003157|IFIS002432|IFIS002431|IFIS002434|IFIS002427|IFIS001950|IFIS003178|IFIS000800|IFIS001370|IFIS001855|IFIS002442|IFIS003163','','Null','IFIS003163','IFIS003149-IFIS003205-IFIS002423-IFIS101183-IFIS002439-IFIS001210-IFIS001600-IFIS003196-IFIS003191-IFIS002004-IFIS003156-IFIS003160-IFIS002440-IFIS001690-IFIS003155-IFIS001835-IFIS002503-IFIS002504-IFIS002027-IFIS002422-IFIS003157-IFIS002432-IFIS002431-IFIS002434-IFIS002427-IFIS001950-IFIS003178-IFIS000800-IFIS001370-IFIS001855-IFIS002442','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row ht="15" r="32" spans="1:10">
       <c r="A32" s="7">
         <v>1</v>
       </c>
@@ -8473,11 +8866,11 @@
         <v>1</v>
       </c>
       <c r="J32" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS003149|IFIS003205|IFIS002423|IFIS101183|IFIS002439|IFIS001210|IFIS001600|IFIS003196|IFIS003191|IFIS002004|IFIS003156|IFIS003160|IFIS002440|IFIS001690|IFIS003155|IFIS001835|IFIS002503|IFIS002504|IFIS002027|IFIS002422|IFIS003157|IFIS002432|IFIS002431|IFIS002434|IFIS002427|IFIS001950|IFIS003178|IFIS000800|IFIS001370|IFIS001855|IFIS002442|IFIS003163','','','IFIS003163','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row ht="15" r="33" spans="1:10">
       <c r="A33" s="7">
         <v>1</v>
       </c>
@@ -8504,11 +8897,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS001560|IFIS001860|IFIS001853|IFIS002193|IFIS001879|IFIS001940','','Null','IFIS001940','IFIS001560-IFIS001860-IFIS001853-IFIS002193-IFIS001879','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row ht="15" r="34" spans="1:10">
       <c r="A34" s="7">
         <v>1</v>
       </c>
@@ -8533,11 +8926,11 @@
         <v>1</v>
       </c>
       <c r="J34" s="8" t="str">
-        <f t="shared" ref="J34:J65" si="1">"insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&amp;B34&amp;","&amp;A34&amp;",'"&amp;D34&amp;"','"&amp;E34&amp;"','"&amp;H34&amp;"','"&amp;F34&amp;"','"&amp;G34&amp;"','"&amp;C34&amp;"','V',"&amp;I34&amp;")"</f>
+        <f ref="J34:J65" si="1" t="shared"><![CDATA["insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B34&","&A34&",'"&D34&"','"&E34&"','"&H34&"','"&F34&"','"&G34&"','"&C34&"','V',"&I34&")"]]></f>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS001560|IFIS001860|IFIS001853|IFIS002193|IFIS001879|IFIS001940','','','IFIS001940','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row ht="15" r="35" spans="1:10">
       <c r="A35" s="7">
         <v>1</v>
       </c>
@@ -8562,11 +8955,11 @@
         <v>1</v>
       </c>
       <c r="J35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFIS001470|IFIS000020|IFIS002046','','','IFIS002046','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row ht="15" r="36" spans="1:10">
       <c r="A36" s="7">
         <v>1</v>
       </c>
@@ -8595,11 +8988,11 @@
         <v>0</v>
       </c>
       <c r="J36" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001590|IFCF200020','IFCF001590-IFCF200020-IFCF200080&gt;0','Null','IFCF200020','IFCF001590-IFCF200080','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row ht="15" r="37" spans="1:10">
       <c r="A37" s="7">
         <v>1</v>
       </c>
@@ -8626,11 +9019,11 @@
         <v>1</v>
       </c>
       <c r="J37" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001590|IFCF200020','IFCF001590-IFCF200020-IFCF200080&gt;0','','IFCF200020','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row ht="15" r="38" spans="1:10">
       <c r="A38" s="24">
         <v>1</v>
       </c>
@@ -8659,11 +9052,11 @@
         <v>0</v>
       </c>
       <c r="J38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001590|IFCF200020','IFCF001590-IFCF200020-IFCF200080&lt;0','Null','IFCF200080','IFCF001590-IFCF200020','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row ht="15" r="39" spans="1:10">
       <c r="A39" s="24">
         <v>1</v>
       </c>
@@ -8690,11 +9083,11 @@
         <v>1</v>
       </c>
       <c r="J39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001590|IFCF200020','IFCF001590-IFCF200020-IFCF200080&lt;0','','IFCF200080','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row ht="15" r="40" spans="1:10">
       <c r="A40" s="7">
         <v>1</v>
       </c>
@@ -8721,11 +9114,11 @@
         <v>0</v>
       </c>
       <c r="J40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF200620|IFCF001613|IFCF000530|IFCF200190','','Null','IFCF200190','IFCF200620-IFCF001613-IFCF000530','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row ht="15" r="41" spans="1:10">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -8750,11 +9143,11 @@
         <v>1</v>
       </c>
       <c r="J41" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF200620|IFCF001613|IFCF000530|IFCF200190','','','IFCF200190','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15">
+    <row ht="15" r="42" spans="1:10">
       <c r="A42" s="7">
         <v>1</v>
       </c>
@@ -8783,11 +9176,11 @@
         <v>0</v>
       </c>
       <c r="J42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001909|IFCF001910','IFCF001908-IFCF001909-IFCF001910&lt;0','Null','IFCF001909','IFCF001908-IFCF001910','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row ht="15" r="43" spans="1:10">
       <c r="A43" s="7">
         <v>1</v>
       </c>
@@ -8814,11 +9207,11 @@
         <v>1</v>
       </c>
       <c r="J43" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001909|IFCF001910','IFCF001908-IFCF001909-IFCF001910&lt;0','','IFCF001909','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15">
+    <row ht="15" r="44" spans="1:10">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -8847,11 +9240,11 @@
         <v>0</v>
       </c>
       <c r="J44" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001909|IFCF001910','IFCF001908-IFCF001909-IFCF001910&gt;0','Null','IFCF001910','IFCF001908-IFCF001909','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15">
+    <row ht="15" r="45" spans="1:10">
       <c r="A45" s="7">
         <v>1</v>
       </c>
@@ -8878,11 +9271,11 @@
         <v>1</v>
       </c>
       <c r="J45" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001909|IFCF001910','IFCF001908-IFCF001909-IFCF001910&gt;0','','IFCF001910','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15">
+    <row ht="15" r="46" spans="1:10">
       <c r="A46" s="24">
         <v>1</v>
       </c>
@@ -8909,11 +9302,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF000450|IFCF001547|IFCF001536','','Null','IFCF001536','IFCF000450-IFCF001547','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15">
+    <row ht="15" r="47" spans="1:10">
       <c r="A47" s="24">
         <v>1</v>
       </c>
@@ -8938,11 +9331,11 @@
         <v>1</v>
       </c>
       <c r="J47" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF000450|IFCF001547|IFCF001536','','','IFCF001536','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15">
+    <row ht="15" r="48" spans="1:10">
       <c r="A48" s="24">
         <v>1</v>
       </c>
@@ -8969,11 +9362,11 @@
         <v>0</v>
       </c>
       <c r="J48" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001537|IFCF000260|IFCF000400','','Null','IFCF000400','IFCF001537-IFCF000260','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15">
+    <row ht="15" r="49" spans="1:10">
       <c r="A49" s="24">
         <v>1</v>
       </c>
@@ -8998,11 +9391,11 @@
         <v>1</v>
       </c>
       <c r="J49" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001537|IFCF000260|IFCF000400','','','IFCF000400','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15">
+    <row ht="15" r="50" spans="1:10">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -9029,11 +9422,11 @@
         <v>0</v>
       </c>
       <c r="J50" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF000530|IFCF000450|IFCF001551|IFCF001758|IFCF001537|IFCF001759|IFCF001532','','Null','IFCF001532','IFCF000530-IFCF001551-IFCF000450-IFCF001758-IFCF001537-IFCF001759','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15">
+    <row ht="15" r="51" spans="1:10">
       <c r="A51" s="7">
         <v>1</v>
       </c>
@@ -9058,11 +9451,11 @@
         <v>1</v>
       </c>
       <c r="J51" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF000530|IFCF000450|IFCF001551|IFCF001758|IFCF001537|IFCF001759|IFCF001532','','','IFCF001532','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15">
+    <row ht="15" r="52" spans="1:10">
       <c r="A52" s="7">
         <v>1</v>
       </c>
@@ -9089,11 +9482,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001591|IFCF200620|IFCF200260|IFCF200270|IFCF001584|IFCF100464|IFCF100463|IFCF200280','','Null','IFCF200290','IFCF001591-IFCF200620-IFCF200260-IFCF200270-IFCF001584-IFCF100464-IFCF100463-IFCF200280','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15">
+    <row ht="15" r="53" spans="1:10">
       <c r="A53" s="7">
         <v>1</v>
       </c>
@@ -9118,11 +9511,11 @@
         <v>1</v>
       </c>
       <c r="J53" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001591|IFCF200620|IFCF200260|IFCF200270|IFCF001584|IFCF100464|IFCF100463|IFCF200280','','','IFCF200290','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15">
+    <row ht="15" r="54" spans="1:10">
       <c r="A54" s="7">
         <v>1</v>
       </c>
@@ -9151,11 +9544,11 @@
         <v>0</v>
       </c>
       <c r="J54" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001240|IFCF001410','IFCF001320-IFCF001240-IFCF001410&lt;0','Null','IFCF001240','IFCF001320-IFCF001410','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15">
+    <row ht="15" r="55" spans="1:10">
       <c r="A55" s="7">
         <v>1</v>
       </c>
@@ -9182,11 +9575,11 @@
         <v>1</v>
       </c>
       <c r="J55" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001240|IFCF001410','IFCF001320-IFCF001240-IFCF001410&lt;0','','IFCF001240','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15">
+    <row ht="15" r="56" spans="1:10">
       <c r="A56" s="7">
         <v>1</v>
       </c>
@@ -9215,11 +9608,11 @@
         <v>0</v>
       </c>
       <c r="J56" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001240|IFCF001410','IFCF001320-IFCF001240-IFCF001410&gt;0','Null','IFCF001410','IFCF001320-IFCF001240','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15">
+    <row ht="15" r="57" spans="1:10">
       <c r="A57" s="7">
         <v>1</v>
       </c>
@@ -9246,11 +9639,11 @@
         <v>1</v>
       </c>
       <c r="J57" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001240|IFCF001410','IFCF001320-IFCF001240-IFCF001410&gt;0','','IFCF001410','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15">
+    <row ht="15" r="58" spans="1:10">
       <c r="A58" s="7">
         <v>1</v>
       </c>
@@ -9279,11 +9672,11 @@
         <v>0</v>
       </c>
       <c r="J58" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001260|IFCF001430','IFCF001330-IFCF001430-IFCF001260&lt;0','Null','IFCF001260','IFCF001330-IFCF001430','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15">
+    <row ht="15" r="59" spans="1:10">
       <c r="A59" s="7">
         <v>1</v>
       </c>
@@ -9310,11 +9703,11 @@
         <v>1</v>
       </c>
       <c r="J59" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001260|IFCF001430','IFCF001330-IFCF001430-IFCF001260&lt;0','','IFCF001260','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15">
+    <row ht="15" r="60" spans="1:10">
       <c r="A60" s="7">
         <v>1</v>
       </c>
@@ -9343,11 +9736,11 @@
         <v>0</v>
       </c>
       <c r="J60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001260|IFCF001430','IFCF001330-IFCF001430-IFCF001260&gt;0','Null','IFCF001430','IFCF001330-IFCF001260','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15">
+    <row ht="15" r="61" spans="1:10">
       <c r="A61" s="7">
         <v>1</v>
       </c>
@@ -9374,11 +9767,11 @@
         <v>1</v>
       </c>
       <c r="J61" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001260|IFCF001430','IFCF001330-IFCF001430-IFCF001260&gt;0','','IFCF001430','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15">
+    <row ht="15" r="62" spans="1:10">
       <c r="A62" s="7">
         <v>1</v>
       </c>
@@ -9407,11 +9800,11 @@
         <v>0</v>
       </c>
       <c r="J62" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001290|IFCF001390','IFCF001300-IFCF001390-IFCF001290&lt;0','Null','IFCF001290','IFCF001300-IFCF001390','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15">
+    <row ht="15" r="63" spans="1:10">
       <c r="A63" s="7">
         <v>1</v>
       </c>
@@ -9438,11 +9831,11 @@
         <v>1</v>
       </c>
       <c r="J63" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001290|IFCF001390','IFCF001300-IFCF001390-IFCF001290&lt;0','','IFCF001290','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15">
+    <row ht="15" r="64" spans="1:10">
       <c r="A64" s="7">
         <v>1</v>
       </c>
@@ -9471,11 +9864,11 @@
         <v>0</v>
       </c>
       <c r="J64" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001290|IFCF001390','IFCF001300-IFCF001390-IFCF001290&gt;0','Null','IFCF001390','IFCF001300-IFCF001290','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15">
+    <row ht="15" r="65" spans="1:10">
       <c r="A65" s="7">
         <v>1</v>
       </c>
@@ -9502,11 +9895,11 @@
         <v>1</v>
       </c>
       <c r="J65" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001290|IFCF001390','IFCF001300-IFCF001390-IFCF001290&gt;0','','IFCF001390','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15">
+    <row ht="15" r="66" spans="1:10">
       <c r="A66" s="7">
         <v>1</v>
       </c>
@@ -9533,11 +9926,11 @@
         <v>0</v>
       </c>
       <c r="J66" s="8" t="str">
-        <f t="shared" ref="J66:J90" si="2">"insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&amp;B66&amp;","&amp;A66&amp;",'"&amp;D66&amp;"','"&amp;E66&amp;"','"&amp;H66&amp;"','"&amp;F66&amp;"','"&amp;G66&amp;"','"&amp;C66&amp;"','V',"&amp;I66&amp;")"</f>
+        <f ref="J66:J90" si="2" t="shared"><![CDATA["insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B66&","&A66&",'"&D66&"','"&E66&"','"&H66&"','"&F66&"','"&G66&"','"&C66&"','V',"&I66&")"]]></f>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001510|IFCF001320|IFCF001330|IFCF001300|IFCF002051|IFCF200400|IFCF200390|IFCF200410|IFCF000910','','Null','IFCF000910','IFCF001510-IFCF001320-IFCF001330-IFCF001300-IFCF002051-IFCF200400-IFCF200390-IFCF200410','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15">
+    <row ht="15" r="67" spans="1:10">
       <c r="A67" s="7">
         <v>1</v>
       </c>
@@ -9562,11 +9955,11 @@
         <v>1</v>
       </c>
       <c r="J67" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001510|IFCF001320|IFCF001330|IFCF001300|IFCF002051|IFCF200400|IFCF200390|IFCF200410|IFCF000910','','','IFCF000910','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15">
+    <row ht="15" r="68" spans="1:10">
       <c r="A68" s="7">
         <v>1</v>
       </c>
@@ -9595,11 +9988,11 @@
         <v>0</v>
       </c>
       <c r="J68" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001080|IFCF000950','IFCF000760-IFCF000950-IFCF001080&gt;0','Null','IFCF001080','IFCF000760-IFCF000950','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15">
+    <row ht="15" r="69" spans="1:10">
       <c r="A69" s="7">
         <v>1</v>
       </c>
@@ -9626,11 +10019,11 @@
         <v>1</v>
       </c>
       <c r="J69" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001080|IFCF000950','IFCF000760-IFCF000950-IFCF001080&gt;0','','IFCF001080','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15">
+    <row ht="15" r="70" spans="1:10">
       <c r="A70" s="7">
         <v>1</v>
       </c>
@@ -9659,11 +10052,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001080|IFCF000950','IFCF000760-IFCF000950-IFCF001080&lt;0','Null','IFCF000950','IFCF000760-IFCF001080','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15">
+    <row ht="15" r="71" spans="1:10">
       <c r="A71" s="7">
         <v>1</v>
       </c>
@@ -9690,11 +10083,11 @@
         <v>1</v>
       </c>
       <c r="J71" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001080|IFCF000950','IFCF000760-IFCF000950-IFCF001080&lt;0','','IFCF000950','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15">
+    <row ht="15" r="72" spans="1:10">
       <c r="A72" s="7">
         <v>1</v>
       </c>
@@ -9723,11 +10116,11 @@
         <v>0</v>
       </c>
       <c r="J72" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001100|IFCF000960','IFCF000790-IFCF000960-IFCF001100&gt;0','Null','IFCF001100','IFCF000790-IFCF000960','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15">
+    <row ht="15" r="73" spans="1:10">
       <c r="A73" s="7">
         <v>1</v>
       </c>
@@ -9754,11 +10147,11 @@
         <v>1</v>
       </c>
       <c r="J73" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001100|IFCF000960','IFCF000790-IFCF000960-IFCF001100&gt;0','','IFCF001100','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15">
+    <row ht="15" r="74" spans="1:10">
       <c r="A74" s="7">
         <v>1</v>
       </c>
@@ -9787,11 +10180,11 @@
         <v>0</v>
       </c>
       <c r="J74" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001100|IFCF000960','IFCF000790-IFCF000960-IFCF001100&lt;0','Null','IFCF000960','IFCF000790-IFCF001100','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15">
+    <row ht="15" r="75" spans="1:10">
       <c r="A75" s="7">
         <v>1</v>
       </c>
@@ -9818,11 +10211,11 @@
         <v>1</v>
       </c>
       <c r="J75" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001100|IFCF000960','IFCF000790-IFCF000960-IFCF001100&lt;0','','IFCF000960','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15">
+    <row ht="15" r="76" spans="1:10">
       <c r="A76" s="7">
         <v>1</v>
       </c>
@@ -9851,11 +10244,11 @@
         <v>0</v>
       </c>
       <c r="J76" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001923|IFCF001924','IFCF000770-IFCF001923-IFCF001924&gt;0','Null','IFCF001923','IFCF000770-IFCF001924','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15">
+    <row ht="15" r="77" spans="1:10">
       <c r="A77" s="7">
         <v>1</v>
       </c>
@@ -9882,11 +10275,11 @@
         <v>1</v>
       </c>
       <c r="J77" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001923|IFCF001924','IFCF000770-IFCF001923-IFCF001924&gt;0','','IFCF001923','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15">
+    <row ht="15" r="78" spans="1:10">
       <c r="A78" s="7">
         <v>1</v>
       </c>
@@ -9915,11 +10308,11 @@
         <v>0</v>
       </c>
       <c r="J78" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001923|IFCF001924','IFCF000770-IFCF001923-IFCF001924&lt;0','Null','IFCF001924','IFCF000770-IFCF001923','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15">
+    <row ht="15" r="79" spans="1:10">
       <c r="A79" s="7">
         <v>1</v>
       </c>
@@ -9946,11 +10339,11 @@
         <v>1</v>
       </c>
       <c r="J79" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001923|IFCF001924','IFCF000770-IFCF001923-IFCF001924&lt;0','','IFCF001924','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15">
+    <row ht="15" r="80" spans="1:10">
       <c r="A80" s="15">
         <v>1</v>
       </c>
@@ -9977,11 +10370,11 @@
         <v>0</v>
       </c>
       <c r="J80" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF000080|IFCF000540|IFCF001020','','Null','IFCF000540','IFCF000080-IFCF001020','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row ht="15" r="81" spans="1:12">
       <c r="A81" s="15">
         <v>1</v>
       </c>
@@ -10006,11 +10399,11 @@
         <v>1</v>
       </c>
       <c r="J81" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF000080|IFCF000540|IFCF001020','','','IFCF000540','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="24" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="82" s="24" spans="1:12">
       <c r="A82" s="7">
         <v>1</v>
       </c>
@@ -10037,11 +10430,11 @@
         <v>0</v>
       </c>
       <c r="J82" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF100477|IFCF001665|IFCF001555','','Null','IFCF001555','IFCF100477-IFCF001665','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row ht="15" r="83" spans="1:12">
       <c r="A83" s="7">
         <v>1</v>
       </c>
@@ -10066,11 +10459,11 @@
         <v>1</v>
       </c>
       <c r="J83" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF100477|IFCF001665|IFCF001555','','','IFCF001555','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row ht="15" r="84" spans="1:12">
       <c r="A84" s="7">
         <v>1</v>
       </c>
@@ -10097,11 +10490,11 @@
         <v>0</v>
       </c>
       <c r="J84" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001509|IFCF000760|IFCF000790|IFCF000770|IFCF002150|IFCF100477|IFCF000900','','Null','IFCF000900','IFCF001509-IFCF000760-IFCF000790-IFCF000770-IFCF002150-IFCF100477','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row ht="15" r="85" spans="1:12">
       <c r="A85" s="7">
         <v>1</v>
       </c>
@@ -10126,11 +10519,11 @@
         <v>1</v>
       </c>
       <c r="J85" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF001509|IFCF000760|IFCF000790|IFCF000770|IFCF002150|IFCF100477|IFCF000900','','','IFCF000900','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row ht="15" r="86" spans="1:12">
       <c r="A86" s="7">
         <v>1</v>
       </c>
@@ -10157,11 +10550,11 @@
         <v>0</v>
       </c>
       <c r="J86" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF000160|IFCF001621|IFCF000650|IFCF000280|IFCF000170|IFCF001624','','Null','IFCF001624','IFCF000170-IFCF001621-IFCF000650-IFCF000280-IFCF000160','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row ht="15" r="87" spans="1:12">
       <c r="A87" s="7">
         <v>1</v>
       </c>
@@ -10186,11 +10579,11 @@
         <v>1</v>
       </c>
       <c r="J87" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFCF000160|IFCF001621|IFCF000650|IFCF000280|IFCF000170|IFCF001624','','','IFCF001624','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="88" s="5" spans="1:12">
       <c r="A88" s="23">
         <v>1</v>
       </c>
@@ -10217,11 +10610,11 @@
         <v>0</v>
       </c>
       <c r="J88" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002270|IFBS000470','','Null','IFBS002330','IFBS002270-IFBS000470','1|2|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="89" s="5" spans="1:12">
       <c r="A89" s="26">
         <v>1</v>
       </c>
@@ -10246,11 +10639,11 @@
         <v>1</v>
       </c>
       <c r="J89" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002270|IFBS000470','','','IFBS002330','NullDelete','1|2|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="90" s="5" spans="1:12">
       <c r="A90" s="23">
         <v>1</v>
       </c>
@@ -10277,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_tier2_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(2,1,'IFBS002646|IFBS000500','','Null','IFBS002647','IFBS002646-IFBS000500','1|2|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
       <c r="L90" s="8"/>
@@ -10309,27 +10702,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="19.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row ht="15" r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10358,7 +10751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="2" s="6" spans="1:10">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -10384,11 +10777,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="str">
-        <f t="shared" ref="J2:J29" si="0">"insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&amp;B2&amp;","&amp;A2&amp;",'"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;H2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;C2&amp;"','V',"&amp;I2&amp;")"</f>
+        <f ref="J2:J29" si="0" t="shared"><![CDATA["insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values("&B2&","&A2&",'"&D2&"','"&E2&"','"&H2&"','"&F2&"','"&G2&"','"&C2&"','V',"&I2&")"]]></f>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS100685|IFBS002380|IFBS002642|IFBS200050|IFBS200663','','Null','IFBS003306','IFBS100685-IFBS002380-IFBS002642-IFBS200050-IFBS200663','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="3" s="6" spans="1:10">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -10411,11 +10804,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS100685|IFBS002380|IFBS002642|IFBS200050|IFBS200663','','','IFBS003306','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="4" s="6" spans="1:10">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -10441,11 +10834,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS001710|IFBS000010|IFBS002240|IFBS002540','','Null','IFBS002540','IFBS001710-IFBS000010-IFBS002240','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="5" s="6" spans="1:10">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -10468,11 +10861,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS001710|IFBS000010|IFBS002240|IFBS002540','','','IFBS002540','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="6" s="6" spans="1:10">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -10499,11 +10892,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS200140|IFBS003308|IFBS002777|IFBS002868|IFBS002100|IFBS002737|IFBS200130','','Null','IFBS200130','IFBS200140-IFBS003308-IFBS002777-IFBS002868-IFBS002100-IFBS002737','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="7" s="6" spans="1:10">
       <c r="A7" s="21">
         <v>1</v>
       </c>
@@ -10528,11 +10921,11 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS200140|IFBS003308|IFBS002777|IFBS002868|IFBS002100|IFBS002737|IFBS200130','','','IFBS200130','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row ht="15" r="8" spans="1:10">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -10559,11 +10952,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFIS001170|IFIS000350|IFIS101200|IFIS101201|IFIS002351|IFIS002034|IFIS001913|IFIS001130|IFIS002228','','Null','IFIS002228','IFIS001170-IFIS000350-IFIS101200-IFIS101201-IFIS002351-IFIS002034-IFIS001913-IFIS001130','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row ht="15" r="9" spans="1:10">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -10588,11 +10981,11 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFIS001170|IFIS000350|IFIS101200|IFIS101201|IFIS002351|IFIS002034|IFIS001913|IFIS001130|IFIS002228','','','IFIS002228','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="10" s="5" spans="1:10">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -10619,11 +11012,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFCF200020|IFCF001902|IFCF001903|IFCF200150|IFCF200170|IFCF001668|IFCF200070','','Null','IFCF200070','IFCF200020-IFCF001902-IFCF001903-IFCF200150-IFCF200170-IFCF001668','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="11" s="5" spans="1:10">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -10648,11 +11041,11 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFCF200020|IFCF001902|IFCF001903|IFCF200150|IFCF200170|IFCF001668|IFCF200070','','','IFCF200070','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row ht="15" r="12" spans="1:10">
       <c r="A12" s="21">
         <v>1</v>
       </c>
@@ -10679,11 +11072,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFCF200080|IFCF001904|IFCF001906|IFCF001907|IFCF200140|IFCF200160|IFCF001672|IFCF200130','','Null','IFCF200130','IFCF200080-IFCF001904-IFCF001906-IFCF001907-IFCF200140-IFCF200160-IFCF001672','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row ht="15" r="13" spans="1:10">
       <c r="A13" s="21">
         <v>1</v>
       </c>
@@ -10708,11 +11101,11 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFCF200080|IFCF001904|IFCF001906|IFCF001907|IFCF200140|IFCF200160|IFCF001672|IFCF200130','','','IFCF200130','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row ht="15" r="14" spans="1:10">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -10739,11 +11132,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFCF200190,(IFCF001559|IFCF000030|IFCF001782|IFCF001783|IFCF001908|IFCF002200|IFCF001582|IFCF000920)','','Null','IFCF000920','IFCF200190-IFCF001559-IFCF000030-IFCF001782-IFCF001783-IFCF001908-IFCF002200-IFCF001582','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row ht="15" r="15" spans="1:10">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -10768,11 +11161,11 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFCF200190,(IFCF001559|IFCF000030|IFCF001782|IFCF001783|IFCF001908|IFCF002200|IFCF001582|IFCF000920)','','','IFCF000920','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row ht="15" r="16" spans="1:10">
       <c r="A16" s="21">
         <v>1</v>
       </c>
@@ -10799,11 +11192,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFCF000400|IFCF001545|IFCF001534','','Null','IFCF001534','IFCF000400-IFCF001545','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row ht="15" r="17" spans="1:10">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -10828,11 +11221,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFCF000400|IFCF001545|IFCF001534','','','IFCF001534','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row ht="15" r="18" spans="1:10">
       <c r="A18" s="21">
         <v>1</v>
       </c>
@@ -10861,11 +11254,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS001450|IFBS001050|IFBS002567','IFBS001450-IFBS001050-IFBS002567&gt;0','Null','IFBS001050','IFBS001450-IFBS002567','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="19" s="5" spans="1:10">
       <c r="A19" s="21">
         <v>1</v>
       </c>
@@ -10892,11 +11285,11 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS001450|IFBS001050|IFBS002567','IFBS001450-IFBS001050-IFBS002567&gt;0','','IFBS001050','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row ht="15" r="20" spans="1:10">
       <c r="A20" s="21">
         <v>1</v>
       </c>
@@ -10925,11 +11318,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS001450|IFBS001050|IFBS002567','IFBS001450-IFBS001050-IFBS002567&lt;0','Null','IFBS002567','IFBS001450-IFBS001050','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row ht="15" r="21" spans="1:10">
       <c r="A21" s="21">
         <v>1</v>
       </c>
@@ -10956,11 +11349,11 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS001450|IFBS001050|IFBS002567','IFBS001450-IFBS001050-IFBS002567&lt;0','','IFBS002567','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row ht="15" r="22" spans="1:10">
       <c r="A22" s="21">
         <v>1</v>
       </c>
@@ -10987,11 +11380,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS002655|IFBS001010|IFBS003302','','Null','IFBS003302','IFBS002655-IFBS001010','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row ht="15" r="23" spans="1:10">
       <c r="A23" s="21">
         <v>1</v>
       </c>
@@ -11016,11 +11409,11 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS002655|IFBS001010|IFBS003302','','','IFBS003302','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row ht="15" r="24" spans="1:10">
       <c r="A24" s="21">
         <v>1</v>
       </c>
@@ -11047,11 +11440,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS002330|IFBS001450|IFBS001020|IFBS100681|IFBS002310|IFBS000700|IFBS000570|IFBS001650','','Null','IFBS001650','IFBS002330-IFBS001450-IFBS001020-IFBS100681-IFBS002310-IFBS000700-IFBS000570-IFBS200020','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row ht="15" r="25" spans="1:10">
       <c r="A25" s="21">
         <v>1</v>
       </c>
@@ -11076,11 +11469,11 @@
         <v>1</v>
       </c>
       <c r="J25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS002330|IFBS001450|IFBS001020|IFBS100681|IFBS002310|IFBS000700|IFBS000570|IFBS001650','','','IFBS001650','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row ht="15" r="26" spans="1:10">
       <c r="A26" s="21">
         <v>1</v>
       </c>
@@ -11107,11 +11500,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS002647|IFBS100735|IFBS002717|IFBS001900|IFBS002805|IFBS003143|IFBS001780|IFBS002480','','Null','IFBS002480','IFBS002647-IFBS100735-IFBS002717-IFBS001900-IFBS002805-IFBS003143-IFBS001780','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row ht="15" r="27" spans="1:10">
       <c r="A27" s="21">
         <v>1</v>
       </c>
@@ -11136,11 +11529,11 @@
         <v>1</v>
       </c>
       <c r="J27" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFBS002647|IFBS100735|IFBS002717|IFBS001900|IFBS002805|IFBS003143|IFBS001780|IFBS002480','','','IFBS002480','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row ht="15" r="28" spans="1:10">
       <c r="A28" s="21">
         <v>1</v>
       </c>
@@ -11167,11 +11560,11 @@
         <v>0</v>
       </c>
       <c r="J28" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFIS002444|IFIS002446|IFIS002445','','Null','IFIS002445','IFIS002444-IFIS002446','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',0)</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row ht="15" r="29" spans="1:10">
       <c r="A29" s="21">
         <v>1</v>
       </c>
@@ -11196,34 +11589,34 @@
         <v>1</v>
       </c>
       <c r="J29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_tier3_equation([CalculationTier],[Priority],[ExecCondition1],[ExecCondition2],[SkipCondition],[OutPutItem],[InPutItem],[FileSource],[IndustryCode],[IsDelete]) values(3,1,'IFIS002444|IFIS002446|IFIS002445','','','IFIS002445','NullDelete','1|2|4|5|6|7|8|9|10|11|12|14|15|16|18|19|20|21|22|23|24|25|26','V',1)</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E383"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="B30" sqref="B30:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="61.875" style="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="41" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="38" width="61.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="41" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.25" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="14.125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row ht="15" r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -11237,7 +11630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row ht="15" r="2" spans="1:5">
       <c r="A2" s="37" t="s">
         <v>678</v>
       </c>
@@ -11251,11 +11644,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f t="shared" ref="E2:E65" si="0">"insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;D2&amp;"','V')"</f>
+        <f ref="E2:E65" si="0" t="shared"><![CDATA["insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&A2&"','"&B2&"','"&D2&"','V')"]]></f>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS001880','1','V')</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row ht="15" r="3" spans="1:5">
       <c r="A3" s="37" t="s">
         <v>678</v>
       </c>
@@ -11269,11 +11662,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS001200','1','V')</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row ht="15" r="4" spans="1:5">
       <c r="A4" s="37" t="s">
         <v>678</v>
       </c>
@@ -11287,11 +11680,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS000280','1','V')</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row ht="15" r="5" spans="1:5">
       <c r="A5" s="37" t="s">
         <v>678</v>
       </c>
@@ -11305,11 +11698,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS001340','1','V')</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row ht="15" r="6" spans="1:5">
       <c r="A6" s="37" t="s">
         <v>678</v>
       </c>
@@ -11323,11 +11716,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002718','1','V')</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row ht="15" r="7" spans="1:5">
       <c r="A7" s="37" t="s">
         <v>678</v>
       </c>
@@ -11341,11 +11734,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002698','1','V')</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row ht="15" r="8" spans="1:5">
       <c r="A8" s="37" t="s">
         <v>678</v>
       </c>
@@ -11359,11 +11752,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS000090','1','V')</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row ht="15" r="9" spans="1:5">
       <c r="A9" s="37" t="s">
         <v>678</v>
       </c>
@@ -11377,11 +11770,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002579','1','V')</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row ht="15" r="10" spans="1:5">
       <c r="A10" s="37" t="s">
         <v>678</v>
       </c>
@@ -11395,11 +11788,11 @@
         <v>1</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002572','1','V')</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row ht="15" r="11" spans="1:5">
       <c r="A11" s="37" t="s">
         <v>678</v>
       </c>
@@ -11413,11 +11806,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002570','1','V')</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row ht="15" r="12" spans="1:5">
       <c r="A12" s="37" t="s">
         <v>678</v>
       </c>
@@ -11431,11 +11824,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002574','1','V')</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row ht="15" r="13" spans="1:5">
       <c r="A13" s="37" t="s">
         <v>678</v>
       </c>
@@ -11449,11 +11842,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002578','1','V')</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row ht="15" r="14" spans="1:5">
       <c r="A14" s="37" t="s">
         <v>678</v>
       </c>
@@ -11467,11 +11860,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002576','1','V')</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row ht="15" r="15" spans="1:5">
       <c r="A15" s="37" t="s">
         <v>678</v>
       </c>
@@ -11485,11 +11878,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002771','1','V')</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row ht="15" r="16" spans="1:5">
       <c r="A16" s="37" t="s">
         <v>678</v>
       </c>
@@ -11503,11 +11896,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002714','1','V')</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row ht="15" r="17" spans="1:5">
       <c r="A17" s="37" t="s">
         <v>678</v>
       </c>
@@ -11521,11 +11914,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002755','1','V')</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row ht="15" r="18" spans="1:5">
       <c r="A18" s="37" t="s">
         <v>678</v>
       </c>
@@ -11539,11 +11932,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002675','1','V')</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row ht="15" r="19" spans="1:5">
       <c r="A19" s="37" t="s">
         <v>678</v>
       </c>
@@ -11557,11 +11950,11 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS001610','1','V')</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row ht="15" r="20" spans="1:5">
       <c r="A20" s="37" t="s">
         <v>678</v>
       </c>
@@ -11575,11 +11968,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS100683','1','V')</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row ht="15" r="21" spans="1:5">
       <c r="A21" s="37" t="s">
         <v>678</v>
       </c>
@@ -11593,11 +11986,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002782','1','V')</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
+    <row ht="15" r="22" spans="1:5">
       <c r="A22" s="37" t="s">
         <v>678</v>
       </c>
@@ -11611,11 +12004,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002781','1','V')</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
+    <row ht="15" r="23" spans="1:5">
       <c r="A23" s="37" t="s">
         <v>678</v>
       </c>
@@ -11629,11 +12022,11 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002787','1','V')</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15">
+    <row ht="15" r="24" spans="1:5">
       <c r="A24" s="37" t="s">
         <v>678</v>
       </c>
@@ -11647,11 +12040,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002791','1','V')</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
+    <row ht="15" r="25" spans="1:5">
       <c r="A25" s="37" t="s">
         <v>678</v>
       </c>
@@ -11665,11 +12058,11 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002790','1','V')</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
+    <row ht="15" r="26" spans="1:5">
       <c r="A26" s="37" t="s">
         <v>678</v>
       </c>
@@ -11683,11 +12076,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003001','1','V')</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
+    <row ht="15" r="27" spans="1:5">
       <c r="A27" s="37" t="s">
         <v>678</v>
       </c>
@@ -11701,11 +12094,11 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003002','1','V')</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15">
+    <row ht="15" r="28" spans="1:5">
       <c r="A28" s="37" t="s">
         <v>678</v>
       </c>
@@ -11719,11 +12112,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003003','1','V')</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
+    <row ht="15" r="29" spans="1:5">
       <c r="A29" s="37" t="s">
         <v>678</v>
       </c>
@@ -11737,11 +12130,11 @@
         <v>1</v>
       </c>
       <c r="E29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002130','1','V')</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15">
+    <row ht="15" r="30" spans="1:5">
       <c r="A30" s="37" t="s">
         <v>678</v>
       </c>
@@ -11755,11 +12148,11 @@
         <v>1</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003004','1','V')</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row ht="15" r="31" spans="1:5">
       <c r="A31" s="37" t="s">
         <v>678</v>
       </c>
@@ -11773,11 +12166,11 @@
         <v>1</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS100721','1','V')</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15">
+    <row ht="15" r="32" spans="1:5">
       <c r="A32" s="37" t="s">
         <v>678</v>
       </c>
@@ -11791,11 +12184,11 @@
         <v>1</v>
       </c>
       <c r="E32" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002770','1','V')</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15">
+    <row ht="15" r="33" spans="1:5">
       <c r="A33" s="37" t="s">
         <v>678</v>
       </c>
@@ -11809,11 +12202,11 @@
         <v>1</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002711','1','V')</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15">
+    <row ht="15" r="34" spans="1:5">
       <c r="A34" s="37" t="s">
         <v>678</v>
       </c>
@@ -11827,11 +12220,11 @@
         <v>1</v>
       </c>
       <c r="E34" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002680','1','V')</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15">
+    <row ht="15" r="35" spans="1:5">
       <c r="A35" s="37" t="s">
         <v>678</v>
       </c>
@@ -11845,11 +12238,11 @@
         <v>1</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002580','1','V')</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15">
+    <row ht="15" r="36" spans="1:5">
       <c r="A36" s="37" t="s">
         <v>678</v>
       </c>
@@ -11863,11 +12256,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003005','1','V')</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15">
+    <row ht="15" r="37" spans="1:5">
       <c r="A37" s="37" t="s">
         <v>678</v>
       </c>
@@ -11881,11 +12274,11 @@
         <v>1</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS000350','1','V')</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15">
+    <row ht="15" r="38" spans="1:5">
       <c r="A38" s="37" t="s">
         <v>678</v>
       </c>
@@ -11899,11 +12292,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002630','1','V')</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15">
+    <row ht="15" r="39" spans="1:5">
       <c r="A39" s="37" t="s">
         <v>678</v>
       </c>
@@ -11917,11 +12310,11 @@
         <v>1</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002786','1','V')</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15">
+    <row ht="15" r="40" spans="1:5">
       <c r="A40" s="37" t="s">
         <v>678</v>
       </c>
@@ -11935,11 +12328,11 @@
         <v>1</v>
       </c>
       <c r="E40" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002643','1','V')</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15">
+    <row ht="15" r="41" spans="1:5">
       <c r="A41" s="37" t="s">
         <v>678</v>
       </c>
@@ -11953,11 +12346,11 @@
         <v>1</v>
       </c>
       <c r="E41" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002773','1','V')</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15">
+    <row ht="15" r="42" spans="1:5">
       <c r="A42" s="37" t="s">
         <v>678</v>
       </c>
@@ -11971,11 +12364,11 @@
         <v>1</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002600','1','V')</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15">
+    <row ht="15" r="43" spans="1:5">
       <c r="A43" s="37" t="s">
         <v>678</v>
       </c>
@@ -11989,11 +12382,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003006','1','V')</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15">
+    <row ht="15" r="44" spans="1:5">
       <c r="A44" s="37" t="s">
         <v>678</v>
       </c>
@@ -12007,11 +12400,11 @@
         <v>1</v>
       </c>
       <c r="E44" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003007','1','V')</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15">
+    <row ht="15" r="45" spans="1:5">
       <c r="A45" s="37" t="s">
         <v>678</v>
       </c>
@@ -12025,11 +12418,11 @@
         <v>1</v>
       </c>
       <c r="E45" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003008','1','V')</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15">
+    <row ht="15" r="46" spans="1:5">
       <c r="A46" s="37" t="s">
         <v>678</v>
       </c>
@@ -12043,11 +12436,11 @@
         <v>1</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003009','1','V')</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15">
+    <row ht="15" r="47" spans="1:5">
       <c r="A47" s="37" t="s">
         <v>678</v>
       </c>
@@ -12061,11 +12454,11 @@
         <v>1</v>
       </c>
       <c r="E47" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003010','1','V')</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15">
+    <row ht="15" r="48" spans="1:5">
       <c r="A48" s="37" t="s">
         <v>678</v>
       </c>
@@ -12079,11 +12472,11 @@
         <v>1</v>
       </c>
       <c r="E48" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002724','1','V')</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
+    <row ht="15" r="49" spans="1:5">
       <c r="A49" s="37" t="s">
         <v>678</v>
       </c>
@@ -12097,11 +12490,11 @@
         <v>1</v>
       </c>
       <c r="E49" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002543','1','V')</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15">
+    <row ht="15" r="50" spans="1:5">
       <c r="A50" s="37" t="s">
         <v>678</v>
       </c>
@@ -12115,11 +12508,11 @@
         <v>1</v>
       </c>
       <c r="E50" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002803','1','V')</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15">
+    <row ht="15" r="51" spans="1:5">
       <c r="A51" s="37" t="s">
         <v>678</v>
       </c>
@@ -12133,11 +12526,11 @@
         <v>1</v>
       </c>
       <c r="E51" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003115','1','V')</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
+    <row ht="15" r="52" spans="1:5">
       <c r="A52" s="37" t="s">
         <v>678</v>
       </c>
@@ -12151,11 +12544,11 @@
         <v>1</v>
       </c>
       <c r="E52" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003116','1','V')</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15">
+    <row ht="15" r="53" spans="1:5">
       <c r="A53" s="37" t="s">
         <v>678</v>
       </c>
@@ -12169,11 +12562,11 @@
         <v>1</v>
       </c>
       <c r="E53" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003117','1','V')</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15">
+    <row ht="15" r="54" spans="1:5">
       <c r="A54" s="37" t="s">
         <v>678</v>
       </c>
@@ -12187,11 +12580,11 @@
         <v>1</v>
       </c>
       <c r="E54" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS100696','1','V')</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15">
+    <row ht="15" r="55" spans="1:5">
       <c r="A55" s="37" t="s">
         <v>678</v>
       </c>
@@ -12205,11 +12598,11 @@
         <v>1</v>
       </c>
       <c r="E55" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003121','1','V')</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15">
+    <row ht="15" r="56" spans="1:5">
       <c r="A56" s="37" t="s">
         <v>678</v>
       </c>
@@ -12223,11 +12616,11 @@
         <v>1</v>
       </c>
       <c r="E56" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003122','1','V')</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15">
+    <row ht="15" r="57" spans="1:5">
       <c r="A57" s="37" t="s">
         <v>678</v>
       </c>
@@ -12241,11 +12634,11 @@
         <v>1</v>
       </c>
       <c r="E57" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003123','1','V')</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15">
+    <row ht="15" r="58" spans="1:5">
       <c r="A58" s="37" t="s">
         <v>678</v>
       </c>
@@ -12259,11 +12652,11 @@
         <v>1</v>
       </c>
       <c r="E58" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003011','1','V')</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15">
+    <row ht="15" r="59" spans="1:5">
       <c r="A59" s="37" t="s">
         <v>678</v>
       </c>
@@ -12277,11 +12670,11 @@
         <v>1</v>
       </c>
       <c r="E59" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003126','1','V')</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15">
+    <row ht="15" r="60" spans="1:5">
       <c r="A60" s="37" t="s">
         <v>678</v>
       </c>
@@ -12295,11 +12688,11 @@
         <v>1</v>
       </c>
       <c r="E60" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS200170','1','V')</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15">
+    <row ht="15" r="61" spans="1:5">
       <c r="A61" s="37" t="s">
         <v>678</v>
       </c>
@@ -12313,11 +12706,11 @@
         <v>1</v>
       </c>
       <c r="E61" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002769','1','V')</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15">
+    <row ht="15" r="62" spans="1:5">
       <c r="A62" s="37" t="s">
         <v>678</v>
       </c>
@@ -12331,11 +12724,11 @@
         <v>1</v>
       </c>
       <c r="E62" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002767','1','V')</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15">
+    <row ht="15" r="63" spans="1:5">
       <c r="A63" s="37" t="s">
         <v>678</v>
       </c>
@@ -12349,11 +12742,11 @@
         <v>1</v>
       </c>
       <c r="E63" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002706','1','V')</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15">
+    <row ht="15" r="64" spans="1:5">
       <c r="A64" s="37" t="s">
         <v>678</v>
       </c>
@@ -12367,11 +12760,11 @@
         <v>1</v>
       </c>
       <c r="E64" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002591','1','V')</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15">
+    <row ht="15" r="65" spans="1:5">
       <c r="A65" s="37" t="s">
         <v>678</v>
       </c>
@@ -12385,11 +12778,11 @@
         <v>1</v>
       </c>
       <c r="E65" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS000060','1','V')</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15">
+    <row ht="15" r="66" spans="1:5">
       <c r="A66" s="37" t="s">
         <v>678</v>
       </c>
@@ -12403,11 +12796,11 @@
         <v>1</v>
       </c>
       <c r="E66" s="8" t="str">
-        <f t="shared" ref="E66:E129" si="1">"insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&amp;A66&amp;"','"&amp;B66&amp;"','"&amp;D66&amp;"','V')"</f>
+        <f ref="E66:E129" si="1" t="shared"><![CDATA["insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&A66&"','"&B66&"','"&D66&"','V')"]]></f>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS001380','1','V')</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row ht="15" r="67" spans="1:5">
       <c r="A67" s="37" t="s">
         <v>678</v>
       </c>
@@ -12421,11 +12814,11 @@
         <v>1</v>
       </c>
       <c r="E67" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003012','1','V')</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15">
+    <row ht="15" r="68" spans="1:5">
       <c r="A68" s="37" t="s">
         <v>678</v>
       </c>
@@ -12439,11 +12832,11 @@
         <v>1</v>
       </c>
       <c r="E68" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003026','1','V')</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15">
+    <row ht="15" r="69" spans="1:5">
       <c r="A69" s="37" t="s">
         <v>678</v>
       </c>
@@ -12457,11 +12850,11 @@
         <v>1</v>
       </c>
       <c r="E69" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003027','1','V')</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15">
+    <row ht="15" r="70" spans="1:5">
       <c r="A70" s="37" t="s">
         <v>678</v>
       </c>
@@ -12475,11 +12868,11 @@
         <v>1</v>
       </c>
       <c r="E70" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003028','1','V')</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15">
+    <row ht="15" r="71" spans="1:5">
       <c r="A71" s="37" t="s">
         <v>678</v>
       </c>
@@ -12493,11 +12886,11 @@
         <v>1</v>
       </c>
       <c r="E71" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003118','1','V')</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row ht="15" r="72" spans="1:5">
       <c r="A72" s="37" t="s">
         <v>678</v>
       </c>
@@ -12511,11 +12904,11 @@
         <v>1</v>
       </c>
       <c r="E72" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003119','1','V')</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15">
+    <row ht="15" r="73" spans="1:5">
       <c r="A73" s="37" t="s">
         <v>678</v>
       </c>
@@ -12529,11 +12922,11 @@
         <v>1</v>
       </c>
       <c r="E73" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003120','1','V')</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15">
+    <row ht="15" r="74" spans="1:5">
       <c r="A74" s="37" t="s">
         <v>678</v>
       </c>
@@ -12547,11 +12940,11 @@
         <v>1</v>
       </c>
       <c r="E74" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003125','1','V')</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15">
+    <row ht="15" r="75" spans="1:5">
       <c r="A75" s="37" t="s">
         <v>678</v>
       </c>
@@ -12565,11 +12958,11 @@
         <v>1</v>
       </c>
       <c r="E75" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003013','1','V')</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15">
+    <row ht="15" r="76" spans="1:5">
       <c r="A76" s="37" t="s">
         <v>678</v>
       </c>
@@ -12583,11 +12976,11 @@
         <v>1</v>
       </c>
       <c r="E76" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS000760','1','V')</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15">
+    <row ht="15" r="77" spans="1:5">
       <c r="A77" s="37" t="s">
         <v>678</v>
       </c>
@@ -12601,11 +12994,11 @@
         <v>1</v>
       </c>
       <c r="E77" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002665','1','V')</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
+    <row ht="15" r="78" spans="1:5">
       <c r="A78" s="37" t="s">
         <v>678</v>
       </c>
@@ -12619,11 +13012,11 @@
         <v>1</v>
       </c>
       <c r="E78" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003014','1','V')</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15">
+    <row ht="15" r="79" spans="1:5">
       <c r="A79" s="37" t="s">
         <v>678</v>
       </c>
@@ -12637,11 +13030,11 @@
         <v>1</v>
       </c>
       <c r="E79" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003015','1','V')</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15">
+    <row ht="15" r="80" spans="1:5">
       <c r="A80" s="37" t="s">
         <v>678</v>
       </c>
@@ -12655,11 +13048,11 @@
         <v>1</v>
       </c>
       <c r="E80" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003016','1','V')</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15">
+    <row ht="15" r="81" spans="1:5">
       <c r="A81" s="37" t="s">
         <v>678</v>
       </c>
@@ -12673,11 +13066,11 @@
         <v>1</v>
       </c>
       <c r="E81" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002788','1','V')</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15">
+    <row ht="15" r="82" spans="1:5">
       <c r="A82" s="37" t="s">
         <v>678</v>
       </c>
@@ -12691,11 +13084,11 @@
         <v>1</v>
       </c>
       <c r="E82" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003230','1','V')</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15">
+    <row ht="15" r="83" spans="1:5">
       <c r="A83" s="37" t="s">
         <v>678</v>
       </c>
@@ -12709,11 +13102,11 @@
         <v>1</v>
       </c>
       <c r="E83" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003034','1','V')</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15">
+    <row ht="15" r="84" spans="1:5">
       <c r="A84" s="37" t="s">
         <v>678</v>
       </c>
@@ -12727,11 +13120,11 @@
         <v>1</v>
       </c>
       <c r="E84" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003035','1','V')</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15">
+    <row ht="15" r="85" spans="1:5">
       <c r="A85" s="37" t="s">
         <v>678</v>
       </c>
@@ -12745,11 +13138,11 @@
         <v>1</v>
       </c>
       <c r="E85" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003036','1','V')</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15">
+    <row ht="15" r="86" spans="1:5">
       <c r="A86" s="37" t="s">
         <v>678</v>
       </c>
@@ -12763,11 +13156,11 @@
         <v>1</v>
       </c>
       <c r="E86" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002625','1','V')</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15">
+    <row ht="15" r="87" spans="1:5">
       <c r="A87" s="37" t="s">
         <v>678</v>
       </c>
@@ -12781,11 +13174,11 @@
         <v>1</v>
       </c>
       <c r="E87" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002837','1','V')</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15">
+    <row ht="15" r="88" spans="1:5">
       <c r="A88" s="37" t="s">
         <v>678</v>
       </c>
@@ -12799,11 +13192,11 @@
         <v>1</v>
       </c>
       <c r="E88" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003017','1','V')</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15">
+    <row ht="15" r="89" spans="1:5">
       <c r="A89" s="37" t="s">
         <v>678</v>
       </c>
@@ -12817,11 +13210,11 @@
         <v>1</v>
       </c>
       <c r="E89" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003018','1','V')</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15">
+    <row ht="15" r="90" spans="1:5">
       <c r="A90" s="37" t="s">
         <v>678</v>
       </c>
@@ -12835,11 +13228,11 @@
         <v>1</v>
       </c>
       <c r="E90" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002581','1','V')</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15">
+    <row ht="15" r="91" spans="1:5">
       <c r="A91" s="37" t="s">
         <v>678</v>
       </c>
@@ -12853,11 +13246,11 @@
         <v>1</v>
       </c>
       <c r="E91" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002559','1','V')</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15">
+    <row ht="15" r="92" spans="1:5">
       <c r="A92" s="37" t="s">
         <v>678</v>
       </c>
@@ -12871,11 +13264,11 @@
         <v>1</v>
       </c>
       <c r="E92" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002558','1','V')</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15">
+    <row ht="15" r="93" spans="1:5">
       <c r="A93" s="37" t="s">
         <v>678</v>
       </c>
@@ -12889,11 +13282,11 @@
         <v>1</v>
       </c>
       <c r="E93" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002561','1','V')</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15">
+    <row ht="15" r="94" spans="1:5">
       <c r="A94" s="37" t="s">
         <v>678</v>
       </c>
@@ -12907,11 +13300,11 @@
         <v>1</v>
       </c>
       <c r="E94" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002789','1','V')</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15">
+    <row ht="15" r="95" spans="1:5">
       <c r="A95" s="37" t="s">
         <v>678</v>
       </c>
@@ -12925,11 +13318,11 @@
         <v>1</v>
       </c>
       <c r="E95" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002652','1','V')</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15">
+    <row ht="15" r="96" spans="1:5">
       <c r="A96" s="37" t="s">
         <v>678</v>
       </c>
@@ -12943,11 +13336,11 @@
         <v>1</v>
       </c>
       <c r="E96" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003037','1','V')</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15">
+    <row ht="15" r="97" spans="1:5">
       <c r="A97" s="37" t="s">
         <v>678</v>
       </c>
@@ -12961,11 +13354,11 @@
         <v>1</v>
       </c>
       <c r="E97" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003229','1','V')</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15">
+    <row ht="15" r="98" spans="1:5">
       <c r="A98" s="37" t="s">
         <v>678</v>
       </c>
@@ -12979,11 +13372,11 @@
         <v>1</v>
       </c>
       <c r="E98" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS003038','1','V')</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15">
+    <row ht="15" r="99" spans="1:5">
       <c r="A99" s="37" t="s">
         <v>678</v>
       </c>
@@ -12997,11 +13390,11 @@
         <v>1</v>
       </c>
       <c r="E99" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002869','1','V')</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15">
+    <row ht="15" r="100" spans="1:5">
       <c r="A100" s="37" t="s">
         <v>678</v>
       </c>
@@ -13015,11 +13408,11 @@
         <v>1</v>
       </c>
       <c r="E100" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002688','1','V')</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15">
+    <row ht="15" r="101" spans="1:5">
       <c r="A101" s="37" t="s">
         <v>678</v>
       </c>
@@ -13033,11 +13426,11 @@
         <v>1</v>
       </c>
       <c r="E101" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002704','1','V')</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15">
+    <row ht="15" r="102" spans="1:5">
       <c r="A102" s="37" t="s">
         <v>678</v>
       </c>
@@ -13051,11 +13444,11 @@
         <v>1</v>
       </c>
       <c r="E102" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002320','1','V')</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15">
+    <row ht="15" r="103" spans="1:5">
       <c r="A103" s="37" t="s">
         <v>678</v>
       </c>
@@ -13069,11 +13462,11 @@
         <v>1</v>
       </c>
       <c r="E103" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002340','1','V')</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15">
+    <row ht="15" r="104" spans="1:5">
       <c r="A104" s="37" t="s">
         <v>678</v>
       </c>
@@ -13087,11 +13480,11 @@
         <v>1</v>
       </c>
       <c r="E104" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002280','1','V')</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15">
+    <row ht="15" r="105" spans="1:5">
       <c r="A105" s="37" t="s">
         <v>678</v>
       </c>
@@ -13105,11 +13498,11 @@
         <v>1</v>
       </c>
       <c r="E105" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002520','1','V')</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15">
+    <row ht="15" r="106" spans="1:5">
       <c r="A106" s="37" t="s">
         <v>678</v>
       </c>
@@ -13123,11 +13516,11 @@
         <v>1</v>
       </c>
       <c r="E106" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS001810','1','V')</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15">
+    <row ht="15" r="107" spans="1:5">
       <c r="A107" s="37" t="s">
         <v>678</v>
       </c>
@@ -13141,11 +13534,11 @@
         <v>1</v>
       </c>
       <c r="E107" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS000410','1','V')</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15">
+    <row ht="15" r="108" spans="1:5">
       <c r="A108" s="37" t="s">
         <v>678</v>
       </c>
@@ -13159,11 +13552,11 @@
         <v>1</v>
       </c>
       <c r="E108" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200622','1','V')</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15">
+    <row ht="15" r="109" spans="1:5">
       <c r="A109" s="37" t="s">
         <v>678</v>
       </c>
@@ -13177,11 +13570,11 @@
         <v>1</v>
       </c>
       <c r="E109" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200623','1','V')</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15">
+    <row ht="15" r="110" spans="1:5">
       <c r="A110" s="37" t="s">
         <v>678</v>
       </c>
@@ -13195,11 +13588,11 @@
         <v>1</v>
       </c>
       <c r="E110" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200090','1','V')</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15">
+    <row ht="15" r="111" spans="1:5">
       <c r="A111" s="37" t="s">
         <v>678</v>
       </c>
@@ -13213,11 +13606,11 @@
         <v>1</v>
       </c>
       <c r="E111" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001905','1','V')</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15">
+    <row ht="15" r="112" spans="1:5">
       <c r="A112" s="37" t="s">
         <v>678</v>
       </c>
@@ -13231,11 +13624,11 @@
         <v>1</v>
       </c>
       <c r="E112" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200100','1','V')</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15">
+    <row ht="15" r="113" spans="1:5">
       <c r="A113" s="37" t="s">
         <v>678</v>
       </c>
@@ -13249,11 +13642,11 @@
         <v>1</v>
       </c>
       <c r="E113" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200110','1','V')</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15">
+    <row ht="15" r="114" spans="1:5">
       <c r="A114" s="37" t="s">
         <v>678</v>
       </c>
@@ -13267,11 +13660,11 @@
         <v>1</v>
       </c>
       <c r="E114" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200120','1','V')</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15">
+    <row ht="15" r="115" spans="1:5">
       <c r="A115" s="37" t="s">
         <v>678</v>
       </c>
@@ -13285,11 +13678,11 @@
         <v>1</v>
       </c>
       <c r="E115" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001947','1','V')</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15">
+    <row ht="15" r="116" spans="1:5">
       <c r="A116" s="37" t="s">
         <v>678</v>
       </c>
@@ -13303,11 +13696,11 @@
         <v>1</v>
       </c>
       <c r="E116" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001948','1','V')</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15">
+    <row ht="15" r="117" spans="1:5">
       <c r="A117" s="35" t="s">
         <v>673</v>
       </c>
@@ -13321,11 +13714,11 @@
         <v>0</v>
       </c>
       <c r="E117" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF100460','0','V')</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15">
+    <row ht="15" r="118" spans="1:5">
       <c r="A118" s="35" t="s">
         <v>673</v>
       </c>
@@ -13339,11 +13732,11 @@
         <v>0</v>
       </c>
       <c r="E118" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF100461','0','V')</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15">
+    <row ht="15" r="119" spans="1:5">
       <c r="A119" s="37" t="s">
         <v>678</v>
       </c>
@@ -13357,11 +13750,11 @@
         <v>1</v>
       </c>
       <c r="E119" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001612','1','V')</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15">
+    <row ht="15" r="120" spans="1:5">
       <c r="A120" s="37" t="s">
         <v>678</v>
       </c>
@@ -13375,11 +13768,11 @@
         <v>1</v>
       </c>
       <c r="E120" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF002142','1','V')</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15">
+    <row ht="15" r="121" spans="1:5">
       <c r="A121" s="37" t="s">
         <v>678</v>
       </c>
@@ -13393,11 +13786,11 @@
         <v>1</v>
       </c>
       <c r="E121" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF002143','1','V')</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15">
+    <row ht="15" r="122" spans="1:5">
       <c r="A122" s="37" t="s">
         <v>678</v>
       </c>
@@ -13411,11 +13804,11 @@
         <v>1</v>
       </c>
       <c r="E122" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001911','1','V')</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15">
+    <row ht="15" r="123" spans="1:5">
       <c r="A123" s="37" t="s">
         <v>678</v>
       </c>
@@ -13429,11 +13822,11 @@
         <v>1</v>
       </c>
       <c r="E123" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001912','1','V')</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15">
+    <row ht="15" r="124" spans="1:5">
       <c r="A124" s="37" t="s">
         <v>678</v>
       </c>
@@ -13447,11 +13840,11 @@
         <v>1</v>
       </c>
       <c r="E124" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001913','1','V')</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15">
+    <row ht="15" r="125" spans="1:5">
       <c r="A125" s="37" t="s">
         <v>678</v>
       </c>
@@ -13465,11 +13858,11 @@
         <v>1</v>
       </c>
       <c r="E125" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001914','1','V')</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15">
+    <row ht="15" r="126" spans="1:5">
       <c r="A126" s="37" t="s">
         <v>678</v>
       </c>
@@ -13483,11 +13876,11 @@
         <v>1</v>
       </c>
       <c r="E126" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001915','1','V')</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15">
+    <row ht="15" r="127" spans="1:5">
       <c r="A127" s="37" t="s">
         <v>678</v>
       </c>
@@ -13501,11 +13894,11 @@
         <v>1</v>
       </c>
       <c r="E127" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001916','1','V')</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15">
+    <row ht="15" r="128" spans="1:5">
       <c r="A128" s="37" t="s">
         <v>678</v>
       </c>
@@ -13519,11 +13912,11 @@
         <v>1</v>
       </c>
       <c r="E128" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001917','1','V')</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15">
+    <row ht="15" r="129" spans="1:5">
       <c r="A129" s="37" t="s">
         <v>678</v>
       </c>
@@ -13537,11 +13930,11 @@
         <v>1</v>
       </c>
       <c r="E129" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001918','1','V')</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15">
+    <row ht="15" r="130" spans="1:5">
       <c r="A130" s="37" t="s">
         <v>678</v>
       </c>
@@ -13555,11 +13948,11 @@
         <v>1</v>
       </c>
       <c r="E130" s="8" t="str">
-        <f t="shared" ref="E130:E193" si="2">"insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&amp;A130&amp;"','"&amp;B130&amp;"','"&amp;D130&amp;"','V')"</f>
+        <f ref="E130:E193" si="2" t="shared"><![CDATA["insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&A130&"','"&B130&"','"&D130&"','V')"]]></f>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001919','1','V')</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15">
+    <row ht="15" r="131" spans="1:5">
       <c r="A131" s="37" t="s">
         <v>678</v>
       </c>
@@ -13573,11 +13966,11 @@
         <v>1</v>
       </c>
       <c r="E131" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001785','1','V')</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15">
+    <row ht="15" r="132" spans="1:5">
       <c r="A132" s="37" t="s">
         <v>678</v>
       </c>
@@ -13591,11 +13984,11 @@
         <v>1</v>
       </c>
       <c r="E132" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001920','1','V')</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15">
+    <row ht="15" r="133" spans="1:5">
       <c r="A133" s="37" t="s">
         <v>678</v>
       </c>
@@ -13609,11 +14002,11 @@
         <v>1</v>
       </c>
       <c r="E133" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001921','1','V')</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15">
+    <row ht="15" r="134" spans="1:5">
       <c r="A134" s="37" t="s">
         <v>678</v>
       </c>
@@ -13627,11 +14020,11 @@
         <v>1</v>
       </c>
       <c r="E134" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001922','1','V')</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15">
+    <row ht="15" r="135" spans="1:5">
       <c r="A135" s="37" t="s">
         <v>678</v>
       </c>
@@ -13645,11 +14038,11 @@
         <v>1</v>
       </c>
       <c r="E135" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF000370','1','V')</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15">
+    <row ht="15" r="136" spans="1:5">
       <c r="A136" s="37" t="s">
         <v>678</v>
       </c>
@@ -13663,11 +14056,11 @@
         <v>1</v>
       </c>
       <c r="E136" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001528','1','V')</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15">
+    <row ht="15" r="137" spans="1:5">
       <c r="A137" s="37" t="s">
         <v>678</v>
       </c>
@@ -13681,11 +14074,11 @@
         <v>1</v>
       </c>
       <c r="E137" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF000330','1','V')</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15">
+    <row ht="15" r="138" spans="1:5">
       <c r="A138" s="37" t="s">
         <v>678</v>
       </c>
@@ -13699,11 +14092,11 @@
         <v>1</v>
       </c>
       <c r="E138" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF002137','1','V')</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15">
+    <row ht="15" r="139" spans="1:5">
       <c r="A139" s="37" t="s">
         <v>678</v>
       </c>
@@ -13717,11 +14110,11 @@
         <v>1</v>
       </c>
       <c r="E139" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001629','1','V')</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15">
+    <row ht="15" r="140" spans="1:5">
       <c r="A140" s="37" t="s">
         <v>678</v>
       </c>
@@ -13735,11 +14128,11 @@
         <v>1</v>
       </c>
       <c r="E140" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200360','1','V')</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15">
+    <row ht="15" r="141" spans="1:5">
       <c r="A141" s="37" t="s">
         <v>678</v>
       </c>
@@ -13753,11 +14146,11 @@
         <v>1</v>
       </c>
       <c r="E141" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200370','1','V')</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15">
+    <row ht="15" r="142" spans="1:5">
       <c r="A142" s="37" t="s">
         <v>678</v>
       </c>
@@ -13771,11 +14164,11 @@
         <v>1</v>
       </c>
       <c r="E142" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF002139','1','V')</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15">
+    <row ht="15" r="143" spans="1:5">
       <c r="A143" s="37" t="s">
         <v>678</v>
       </c>
@@ -13789,11 +14182,11 @@
         <v>1</v>
       </c>
       <c r="E143" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001925','1','V')</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15">
+    <row ht="15" r="144" spans="1:5">
       <c r="A144" s="37" t="s">
         <v>678</v>
       </c>
@@ -13807,11 +14200,11 @@
         <v>1</v>
       </c>
       <c r="E144" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF002140','1','V')</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15">
+    <row ht="15" r="145" spans="1:5">
       <c r="A145" s="37" t="s">
         <v>678</v>
       </c>
@@ -13825,11 +14218,11 @@
         <v>1</v>
       </c>
       <c r="E145" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001592','1','V')</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15">
+    <row ht="15" r="146" spans="1:5">
       <c r="A146" s="37" t="s">
         <v>678</v>
       </c>
@@ -13843,11 +14236,11 @@
         <v>1</v>
       </c>
       <c r="E146" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002064','1','V')</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15">
+    <row ht="15" r="147" spans="1:5">
       <c r="A147" s="37" t="s">
         <v>678</v>
       </c>
@@ -13861,11 +14254,11 @@
         <v>1</v>
       </c>
       <c r="E147" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002414','1','V')</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15">
+    <row ht="15" r="148" spans="1:5">
       <c r="A148" s="37" t="s">
         <v>678</v>
       </c>
@@ -13879,11 +14272,11 @@
         <v>1</v>
       </c>
       <c r="E148" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002001','1','V')</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15">
+    <row ht="15" r="149" spans="1:5">
       <c r="A149" s="37" t="s">
         <v>678</v>
       </c>
@@ -13897,11 +14290,11 @@
         <v>1</v>
       </c>
       <c r="E149" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002012','1','V')</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15">
+    <row ht="15" r="150" spans="1:5">
       <c r="A150" s="37" t="s">
         <v>678</v>
       </c>
@@ -13915,11 +14308,11 @@
         <v>1</v>
       </c>
       <c r="E150" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001995','1','V')</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15">
+    <row ht="15" r="151" spans="1:5">
       <c r="A151" s="37" t="s">
         <v>678</v>
       </c>
@@ -13933,11 +14326,11 @@
         <v>1</v>
       </c>
       <c r="E151" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002054','1','V')</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15">
+    <row ht="15" r="152" spans="1:5">
       <c r="A152" s="37" t="s">
         <v>678</v>
       </c>
@@ -13951,11 +14344,11 @@
         <v>1</v>
       </c>
       <c r="E152" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002443','1','V')</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row ht="15" r="153" spans="1:5">
       <c r="A153" s="37" t="s">
         <v>678</v>
       </c>
@@ -13969,11 +14362,11 @@
         <v>1</v>
       </c>
       <c r="E153" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002453','1','V')</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row ht="15" r="154" spans="1:5">
       <c r="A154" s="37" t="s">
         <v>678</v>
       </c>
@@ -13987,11 +14380,11 @@
         <v>1</v>
       </c>
       <c r="E154" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001929','1','V')</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row ht="15" r="155" spans="1:5">
       <c r="A155" s="37" t="s">
         <v>678</v>
       </c>
@@ -14005,11 +14398,11 @@
         <v>1</v>
       </c>
       <c r="E155" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002416','1','V')</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15">
+    <row ht="15" r="156" spans="1:5">
       <c r="A156" s="37" t="s">
         <v>678</v>
       </c>
@@ -14023,11 +14416,11 @@
         <v>1</v>
       </c>
       <c r="E156" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002024','1','V')</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15">
+    <row ht="15" r="157" spans="1:5">
       <c r="A157" s="37" t="s">
         <v>678</v>
       </c>
@@ -14041,11 +14434,11 @@
         <v>1</v>
       </c>
       <c r="E157" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002063','1','V')</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15">
+    <row ht="15" r="158" spans="1:5">
       <c r="A158" s="37" t="s">
         <v>678</v>
       </c>
@@ -14059,11 +14452,11 @@
         <v>1</v>
       </c>
       <c r="E158" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002000','1','V')</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15">
+    <row ht="15" r="159" spans="1:5">
       <c r="A159" s="37" t="s">
         <v>678</v>
       </c>
@@ -14077,11 +14470,11 @@
         <v>1</v>
       </c>
       <c r="E159" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002011','1','V')</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15">
+    <row ht="15" r="160" spans="1:5">
       <c r="A160" s="37" t="s">
         <v>678</v>
       </c>
@@ -14095,11 +14488,11 @@
         <v>1</v>
       </c>
       <c r="E160" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001994','1','V')</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15">
+    <row ht="15" r="161" spans="1:5">
       <c r="A161" s="37" t="s">
         <v>678</v>
       </c>
@@ -14113,11 +14506,11 @@
         <v>1</v>
       </c>
       <c r="E161" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001993','1','V')</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15">
+    <row ht="15" r="162" spans="1:5">
       <c r="A162" s="37" t="s">
         <v>678</v>
       </c>
@@ -14131,11 +14524,11 @@
         <v>1</v>
       </c>
       <c r="E162" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002053','1','V')</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15">
+    <row ht="15" r="163" spans="1:5">
       <c r="A163" s="37" t="s">
         <v>678</v>
       </c>
@@ -14149,11 +14542,11 @@
         <v>1</v>
       </c>
       <c r="E163" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002023','1','V')</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15">
+    <row ht="15" r="164" spans="1:5">
       <c r="A164" s="37" t="s">
         <v>678</v>
       </c>
@@ -14167,11 +14560,11 @@
         <v>1</v>
       </c>
       <c r="E164" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001220','1','V')</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15">
+    <row ht="15" r="165" spans="1:5">
       <c r="A165" s="37" t="s">
         <v>678</v>
       </c>
@@ -14185,11 +14578,11 @@
         <v>1</v>
       </c>
       <c r="E165" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002062','1','V')</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15">
+    <row ht="15" r="166" spans="1:5">
       <c r="A166" s="37" t="s">
         <v>678</v>
       </c>
@@ -14203,11 +14596,11 @@
         <v>1</v>
       </c>
       <c r="E166" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002062','1','V')</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15">
+    <row ht="15" r="167" spans="1:5">
       <c r="A167" s="37" t="s">
         <v>678</v>
       </c>
@@ -14221,11 +14614,11 @@
         <v>1</v>
       </c>
       <c r="E167" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002050','1','V')</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15">
+    <row ht="15" r="168" spans="1:5">
       <c r="A168" s="37" t="s">
         <v>678</v>
       </c>
@@ -14239,11 +14632,11 @@
         <v>1</v>
       </c>
       <c r="E168" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS000810','1','V')</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15">
+    <row ht="15" r="169" spans="1:5">
       <c r="A169" s="37" t="s">
         <v>678</v>
       </c>
@@ -14257,11 +14650,11 @@
         <v>1</v>
       </c>
       <c r="E169" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002419','1','V')</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15">
+    <row ht="15" r="170" spans="1:5">
       <c r="A170" s="37" t="s">
         <v>678</v>
       </c>
@@ -14275,11 +14668,11 @@
         <v>1</v>
       </c>
       <c r="E170" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002036','1','V')</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15">
+    <row ht="15" r="171" spans="1:5">
       <c r="A171" s="37" t="s">
         <v>678</v>
       </c>
@@ -14293,11 +14686,11 @@
         <v>1</v>
       </c>
       <c r="E171" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101185','1','V')</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15">
+    <row ht="15" r="172" spans="1:5">
       <c r="A172" s="37" t="s">
         <v>678</v>
       </c>
@@ -14311,11 +14704,11 @@
         <v>1</v>
       </c>
       <c r="E172" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS200290','1','V')</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15">
+    <row ht="15" r="173" spans="1:5">
       <c r="A173" s="37" t="s">
         <v>678</v>
       </c>
@@ -14329,11 +14722,11 @@
         <v>1</v>
       </c>
       <c r="E173" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002502','1','V')</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15">
+    <row ht="15" r="174" spans="1:5">
       <c r="A174" s="37" t="s">
         <v>678</v>
       </c>
@@ -14347,11 +14740,11 @@
         <v>1</v>
       </c>
       <c r="E174" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101205','1','V')</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15">
+    <row ht="15" r="175" spans="1:5">
       <c r="A175" s="37" t="s">
         <v>678</v>
       </c>
@@ -14365,11 +14758,11 @@
         <v>1</v>
       </c>
       <c r="E175" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002060','1','V')</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15">
+    <row ht="15" r="176" spans="1:5">
       <c r="A176" s="37" t="s">
         <v>678</v>
       </c>
@@ -14383,11 +14776,11 @@
         <v>1</v>
       </c>
       <c r="E176" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002436','1','V')</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15">
+    <row ht="15" r="177" spans="1:5">
       <c r="A177" s="37" t="s">
         <v>678</v>
       </c>
@@ -14401,11 +14794,11 @@
         <v>1</v>
       </c>
       <c r="E177" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002437','1','V')</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15">
+    <row ht="15" r="178" spans="1:5">
       <c r="A178" s="37" t="s">
         <v>678</v>
       </c>
@@ -14419,11 +14812,11 @@
         <v>1</v>
       </c>
       <c r="E178" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002678','1','V')</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15">
+    <row ht="15" r="179" spans="1:5">
       <c r="A179" s="37" t="s">
         <v>678</v>
       </c>
@@ -14437,11 +14830,11 @@
         <v>1</v>
       </c>
       <c r="E179" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002438','1','V')</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15">
+    <row ht="15" r="180" spans="1:5">
       <c r="A180" s="37" t="s">
         <v>678</v>
       </c>
@@ -14455,11 +14848,11 @@
         <v>1</v>
       </c>
       <c r="E180" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002424','1','V')</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15">
+    <row ht="15" r="181" spans="1:5">
       <c r="A181" s="37" t="s">
         <v>678</v>
       </c>
@@ -14473,11 +14866,11 @@
         <v>1</v>
       </c>
       <c r="E181" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002429','1','V')</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15">
+    <row ht="15" r="182" spans="1:5">
       <c r="A182" s="37" t="s">
         <v>678</v>
       </c>
@@ -14491,11 +14884,11 @@
         <v>1</v>
       </c>
       <c r="E182" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002425','1','V')</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15">
+    <row ht="15" r="183" spans="1:5">
       <c r="A183" s="37" t="s">
         <v>678</v>
       </c>
@@ -14509,11 +14902,11 @@
         <v>1</v>
       </c>
       <c r="E183" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002435','1','V')</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15">
+    <row ht="15" r="184" spans="1:5">
       <c r="A184" s="37" t="s">
         <v>678</v>
       </c>
@@ -14527,11 +14920,11 @@
         <v>1</v>
       </c>
       <c r="E184" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002426','1','V')</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15">
+    <row ht="15" r="185" spans="1:5">
       <c r="A185" s="37" t="s">
         <v>678</v>
       </c>
@@ -14545,11 +14938,11 @@
         <v>1</v>
       </c>
       <c r="E185" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001999','1','V')</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15">
+    <row ht="15" r="186" spans="1:5">
       <c r="A186" s="37" t="s">
         <v>678</v>
       </c>
@@ -14563,11 +14956,11 @@
         <v>1</v>
       </c>
       <c r="E186" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002441','1','V')</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15">
+    <row ht="15" r="187" spans="1:5">
       <c r="A187" s="37" t="s">
         <v>678</v>
       </c>
@@ -14581,11 +14974,11 @@
         <v>1</v>
       </c>
       <c r="E187" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002022','1','V')</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15">
+    <row ht="15" r="188" spans="1:5">
       <c r="A188" s="37" t="s">
         <v>678</v>
       </c>
@@ -14599,11 +14992,11 @@
         <v>1</v>
       </c>
       <c r="E188" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002420','1','V')</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15">
+    <row ht="15" r="189" spans="1:5">
       <c r="A189" s="37" t="s">
         <v>678</v>
       </c>
@@ -14617,11 +15010,11 @@
         <v>1</v>
       </c>
       <c r="E189" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002421','1','V')</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15">
+    <row ht="15" r="190" spans="1:5">
       <c r="A190" s="37" t="s">
         <v>678</v>
       </c>
@@ -14635,11 +15028,11 @@
         <v>1</v>
       </c>
       <c r="E190" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002430','1','V')</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15">
+    <row ht="15" r="191" spans="1:5">
       <c r="A191" s="37" t="s">
         <v>678</v>
       </c>
@@ -14653,11 +15046,11 @@
         <v>1</v>
       </c>
       <c r="E191" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002433','1','V')</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15">
+    <row ht="15" r="192" spans="1:5">
       <c r="A192" s="37" t="s">
         <v>678</v>
       </c>
@@ -14671,11 +15064,11 @@
         <v>1</v>
       </c>
       <c r="E192" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002428','1','V')</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15">
+    <row ht="15" r="193" spans="1:5">
       <c r="A193" s="37" t="s">
         <v>678</v>
       </c>
@@ -14689,11 +15082,11 @@
         <v>1</v>
       </c>
       <c r="E193" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001949','1','V')</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15">
+    <row ht="15" r="194" spans="1:5">
       <c r="A194" s="37" t="s">
         <v>678</v>
       </c>
@@ -14707,11 +15100,11 @@
         <v>1</v>
       </c>
       <c r="E194" s="8" t="str">
-        <f t="shared" ref="E194:E257" si="3">"insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&amp;A194&amp;"','"&amp;B194&amp;"','"&amp;D194&amp;"','V')"</f>
+        <f ref="E194:E257" si="3" t="shared"><![CDATA["insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&A194&"','"&B194&"','"&D194&"','V')"]]></f>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001937','1','V')</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15">
+    <row ht="15" r="195" spans="1:5">
       <c r="A195" s="37" t="s">
         <v>678</v>
       </c>
@@ -14725,11 +15118,11 @@
         <v>1</v>
       </c>
       <c r="E195" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002061','1','V')</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15">
+    <row ht="15" r="196" spans="1:5">
       <c r="A196" s="37" t="s">
         <v>678</v>
       </c>
@@ -14743,11 +15136,11 @@
         <v>1</v>
       </c>
       <c r="E196" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002049','1','V')</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15">
+    <row ht="15" r="197" spans="1:5">
       <c r="A197" s="37" t="s">
         <v>678</v>
       </c>
@@ -14761,11 +15154,11 @@
         <v>1</v>
       </c>
       <c r="E197" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002003','1','V')</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15">
+    <row ht="15" r="198" spans="1:5">
       <c r="A198" s="37" t="s">
         <v>678</v>
       </c>
@@ -14779,11 +15172,11 @@
         <v>1</v>
       </c>
       <c r="E198" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002042','1','V')</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15">
+    <row ht="15" r="199" spans="1:5">
       <c r="A199" s="37" t="s">
         <v>678</v>
       </c>
@@ -14797,11 +15190,11 @@
         <v>1</v>
       </c>
       <c r="E199" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002026','1','V')</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15">
+    <row ht="15" r="200" spans="1:5">
       <c r="A200" s="37" t="s">
         <v>678</v>
       </c>
@@ -14815,11 +15208,11 @@
         <v>1</v>
       </c>
       <c r="E200" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002035','1','V')</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15">
+    <row ht="15" r="201" spans="1:5">
       <c r="A201" s="37" t="s">
         <v>678</v>
       </c>
@@ -14833,11 +15226,11 @@
         <v>1</v>
       </c>
       <c r="E201" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002059','1','V')</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15">
+    <row ht="15" r="202" spans="1:5">
       <c r="A202" s="37" t="s">
         <v>678</v>
       </c>
@@ -14851,11 +15244,11 @@
         <v>1</v>
       </c>
       <c r="E202" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002021','1','V')</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15">
+    <row ht="15" r="203" spans="1:5">
       <c r="A203" s="37" t="s">
         <v>678</v>
       </c>
@@ -14869,11 +15262,11 @@
         <v>1</v>
       </c>
       <c r="E203" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101186','1','V')</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15">
+    <row ht="15" r="204" spans="1:5">
       <c r="A204" s="37" t="s">
         <v>678</v>
       </c>
@@ -14887,11 +15280,11 @@
         <v>1</v>
       </c>
       <c r="E204" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001878','1','V')</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15">
+    <row ht="15" r="205" spans="1:5">
       <c r="A205" s="37" t="s">
         <v>678</v>
       </c>
@@ -14905,11 +15298,11 @@
         <v>1</v>
       </c>
       <c r="E205" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002506','1','V')</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15">
+    <row ht="15" r="206" spans="1:5">
       <c r="A206" s="37" t="s">
         <v>678</v>
       </c>
@@ -14923,11 +15316,11 @@
         <v>1</v>
       </c>
       <c r="E206" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002507','1','V')</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15">
+    <row ht="15" r="207" spans="1:5">
       <c r="A207" s="37" t="s">
         <v>678</v>
       </c>
@@ -14941,11 +15334,11 @@
         <v>1</v>
       </c>
       <c r="E207" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS000620','1','V')</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15">
+    <row ht="15" r="208" spans="1:5">
       <c r="A208" s="37" t="s">
         <v>678</v>
       </c>
@@ -14959,11 +15352,11 @@
         <v>1</v>
       </c>
       <c r="E208" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001894','1','V')</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15">
+    <row ht="15" r="209" spans="1:5">
       <c r="A209" s="37" t="s">
         <v>678</v>
       </c>
@@ -14977,11 +15370,11 @@
         <v>1</v>
       </c>
       <c r="E209" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001896','1','V')</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15">
+    <row ht="15" r="210" spans="1:5">
       <c r="A210" s="37" t="s">
         <v>678</v>
       </c>
@@ -14995,11 +15388,11 @@
         <v>1</v>
       </c>
       <c r="E210" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002195','1','V')</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15">
+    <row ht="15" r="211" spans="1:5">
       <c r="A211" s="37" t="s">
         <v>678</v>
       </c>
@@ -15013,11 +15406,11 @@
         <v>1</v>
       </c>
       <c r="E211" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001889','1','V')</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15">
+    <row ht="15" r="212" spans="1:5">
       <c r="A212" s="37" t="s">
         <v>678</v>
       </c>
@@ -15031,11 +15424,11 @@
         <v>1</v>
       </c>
       <c r="E212" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002591','1','V')</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15">
+    <row ht="15" r="213" spans="1:5">
       <c r="A213" s="37" t="s">
         <v>678</v>
       </c>
@@ -15049,11 +15442,11 @@
         <v>1</v>
       </c>
       <c r="E213" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001929','1','V')</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15">
+    <row ht="15" r="214" spans="1:5">
       <c r="A214" s="37" t="s">
         <v>678</v>
       </c>
@@ -15067,11 +15460,11 @@
         <v>1</v>
       </c>
       <c r="E214" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002686','1','V')</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15">
+    <row ht="15" r="215" spans="1:5">
       <c r="A215" s="37" t="s">
         <v>678</v>
       </c>
@@ -15085,11 +15478,11 @@
         <v>1</v>
       </c>
       <c r="E215" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002687','1','V')</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15">
+    <row ht="15" r="216" spans="1:5">
       <c r="A216" s="37" t="s">
         <v>678</v>
       </c>
@@ -15103,11 +15496,11 @@
         <v>1</v>
       </c>
       <c r="E216" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002688','1','V')</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15">
+    <row ht="15" r="217" spans="1:5">
       <c r="A217" s="37" t="s">
         <v>678</v>
       </c>
@@ -15121,11 +15514,11 @@
         <v>1</v>
       </c>
       <c r="E217" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001230','1','V')</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15">
+    <row ht="15" r="218" spans="1:5">
       <c r="A218" s="37" t="s">
         <v>678</v>
       </c>
@@ -15139,11 +15532,11 @@
         <v>1</v>
       </c>
       <c r="E218" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002040','1','V')</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15">
+    <row ht="15" r="219" spans="1:5">
       <c r="A219" s="37" t="s">
         <v>678</v>
       </c>
@@ -15157,11 +15550,11 @@
         <v>1</v>
       </c>
       <c r="E219" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002039','1','V')</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15">
+    <row ht="15" r="220" spans="1:5">
       <c r="A220" s="37" t="s">
         <v>678</v>
       </c>
@@ -15175,11 +15568,11 @@
         <v>1</v>
       </c>
       <c r="E220" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001917','1','V')</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15">
+    <row ht="15" r="221" spans="1:5">
       <c r="A221" s="37" t="s">
         <v>678</v>
       </c>
@@ -15193,11 +15586,11 @@
         <v>1</v>
       </c>
       <c r="E221" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002056','1','V')</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15">
+    <row ht="15" r="222" spans="1:5">
       <c r="A222" s="37" t="s">
         <v>678</v>
       </c>
@@ -15211,11 +15604,11 @@
         <v>1</v>
       </c>
       <c r="E222" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002052','1','V')</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15">
+    <row ht="15" r="223" spans="1:5">
       <c r="A223" s="37" t="s">
         <v>678</v>
       </c>
@@ -15229,11 +15622,11 @@
         <v>1</v>
       </c>
       <c r="E223" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001999','1','V')</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15">
+    <row ht="15" r="224" spans="1:5">
       <c r="A224" s="37" t="s">
         <v>678</v>
       </c>
@@ -15247,11 +15640,11 @@
         <v>1</v>
       </c>
       <c r="E224" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002689','1','V')</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15">
+    <row ht="15" r="225" spans="1:5">
       <c r="A225" s="37" t="s">
         <v>678</v>
       </c>
@@ -15265,11 +15658,11 @@
         <v>1</v>
       </c>
       <c r="E225" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002018','1','V')</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15">
+    <row ht="15" r="226" spans="1:5">
       <c r="A226" s="37" t="s">
         <v>678</v>
       </c>
@@ -15283,11 +15676,11 @@
         <v>1</v>
       </c>
       <c r="E226" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001925','1','V')</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15">
+    <row ht="15" r="227" spans="1:5">
       <c r="A227" s="37" t="s">
         <v>678</v>
       </c>
@@ -15301,11 +15694,11 @@
         <v>1</v>
       </c>
       <c r="E227" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001924','1','V')</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15">
+    <row ht="15" r="228" spans="1:5">
       <c r="A228" s="37" t="s">
         <v>678</v>
       </c>
@@ -15319,11 +15712,11 @@
         <v>1</v>
       </c>
       <c r="E228" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002058','1','V')</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15">
+    <row ht="15" r="229" spans="1:5">
       <c r="A229" s="37" t="s">
         <v>678</v>
       </c>
@@ -15337,11 +15730,11 @@
         <v>1</v>
       </c>
       <c r="E229" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002690','1','V')</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15">
+    <row ht="15" r="230" spans="1:5">
       <c r="A230" s="37" t="s">
         <v>678</v>
       </c>
@@ -15355,11 +15748,11 @@
         <v>1</v>
       </c>
       <c r="E230" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002691','1','V')</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15">
+    <row ht="15" r="231" spans="1:5">
       <c r="A231" s="37" t="s">
         <v>678</v>
       </c>
@@ -15373,11 +15766,11 @@
         <v>1</v>
       </c>
       <c r="E231" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002055','1','V')</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15">
+    <row ht="15" r="232" spans="1:5">
       <c r="A232" s="37" t="s">
         <v>678</v>
       </c>
@@ -15391,11 +15784,11 @@
         <v>1</v>
       </c>
       <c r="E232" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002051','1','V')</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15">
+    <row ht="15" r="233" spans="1:5">
       <c r="A233" s="37" t="s">
         <v>678</v>
       </c>
@@ -15409,11 +15802,11 @@
         <v>1</v>
       </c>
       <c r="E233" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002017','1','V')</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15">
+    <row ht="15" r="234" spans="1:5">
       <c r="A234" s="37" t="s">
         <v>678</v>
       </c>
@@ -15427,11 +15820,11 @@
         <v>1</v>
       </c>
       <c r="E234" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002057','1','V')</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15">
+    <row ht="15" r="235" spans="1:5">
       <c r="A235" s="37" t="s">
         <v>678</v>
       </c>
@@ -15445,11 +15838,11 @@
         <v>1</v>
       </c>
       <c r="E235" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002031','1','V')</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15">
+    <row ht="15" r="236" spans="1:5">
       <c r="A236" s="37" t="s">
         <v>678</v>
       </c>
@@ -15463,11 +15856,11 @@
         <v>1</v>
       </c>
       <c r="E236" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002248','1','V')</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15">
+    <row ht="15" r="237" spans="1:5">
       <c r="A237" s="37" t="s">
         <v>678</v>
       </c>
@@ -15481,11 +15874,11 @@
         <v>1</v>
       </c>
       <c r="E237" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002033','1','V')</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15">
+    <row ht="15" r="238" spans="1:5">
       <c r="A238" s="35" t="s">
         <v>673</v>
       </c>
@@ -15499,11 +15892,11 @@
         <v>0</v>
       </c>
       <c r="E238" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001862','0','V')</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15">
+    <row ht="15" r="239" spans="1:5">
       <c r="A239" s="35" t="s">
         <v>673</v>
       </c>
@@ -15517,11 +15910,11 @@
         <v>0</v>
       </c>
       <c r="E239" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001971','0','V')</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15">
+    <row ht="15" r="240" spans="1:5">
       <c r="A240" s="35" t="s">
         <v>673</v>
       </c>
@@ -15535,11 +15928,11 @@
         <v>0</v>
       </c>
       <c r="E240" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001833','0','V')</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15">
+    <row ht="15" r="241" spans="1:5">
       <c r="A241" s="37" t="s">
         <v>678</v>
       </c>
@@ -15553,11 +15946,11 @@
         <v>1</v>
       </c>
       <c r="E241" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002032','1','V')</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15">
+    <row ht="15" r="242" spans="1:5">
       <c r="A242" s="37" t="s">
         <v>678</v>
       </c>
@@ -15571,11 +15964,11 @@
         <v>1</v>
       </c>
       <c r="E242" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002010','1','V')</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15">
+    <row ht="15" r="243" spans="1:5">
       <c r="A243" s="37" t="s">
         <v>678</v>
       </c>
@@ -15589,11 +15982,11 @@
         <v>1</v>
       </c>
       <c r="E243" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002009','1','V')</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15">
+    <row ht="15" r="244" spans="1:5">
       <c r="A244" s="37" t="s">
         <v>678</v>
       </c>
@@ -15607,11 +16000,11 @@
         <v>1</v>
       </c>
       <c r="E244" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002112','1','V')</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15">
+    <row ht="15" r="245" spans="1:5">
       <c r="A245" s="37" t="s">
         <v>678</v>
       </c>
@@ -15625,11 +16018,11 @@
         <v>1</v>
       </c>
       <c r="E245" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002045','1','V')</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15">
+    <row ht="15" r="246" spans="1:5">
       <c r="A246" s="37" t="s">
         <v>678</v>
       </c>
@@ -15643,11 +16036,11 @@
         <v>1</v>
       </c>
       <c r="E246" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002048','1','V')</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15">
+    <row ht="15" r="247" spans="1:5">
       <c r="A247" s="37" t="s">
         <v>678</v>
       </c>
@@ -15661,11 +16054,11 @@
         <v>1</v>
       </c>
       <c r="E247" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001992','1','V')</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15">
+    <row ht="15" r="248" spans="1:5">
       <c r="A248" s="37" t="s">
         <v>678</v>
       </c>
@@ -15679,11 +16072,11 @@
         <v>1</v>
       </c>
       <c r="E248" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002016','1','V')</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15">
+    <row ht="15" r="249" spans="1:5">
       <c r="A249" s="37" t="s">
         <v>678</v>
       </c>
@@ -15697,11 +16090,11 @@
         <v>1</v>
       </c>
       <c r="E249" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002047','1','V')</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15">
+    <row ht="15" r="250" spans="1:5">
       <c r="A250" s="37" t="s">
         <v>678</v>
       </c>
@@ -15715,11 +16108,11 @@
         <v>1</v>
       </c>
       <c r="E250" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001991','1','V')</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15">
+    <row ht="15" r="251" spans="1:5">
       <c r="A251" s="37" t="s">
         <v>678</v>
       </c>
@@ -15733,11 +16126,11 @@
         <v>1</v>
       </c>
       <c r="E251" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002015','1','V')</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15">
+    <row ht="15" r="252" spans="1:5">
       <c r="A252" s="37" t="s">
         <v>678</v>
       </c>
@@ -15751,11 +16144,11 @@
         <v>1</v>
       </c>
       <c r="E252" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002020','1','V')</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15">
+    <row ht="15" r="253" spans="1:5">
       <c r="A253" s="37" t="s">
         <v>678</v>
       </c>
@@ -15769,11 +16162,11 @@
         <v>1</v>
       </c>
       <c r="E253" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002019','1','V')</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15">
+    <row ht="15" r="254" spans="1:5">
       <c r="A254" s="37" t="s">
         <v>678</v>
       </c>
@@ -15787,11 +16180,11 @@
         <v>1</v>
       </c>
       <c r="E254" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002038','1','V')</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15">
+    <row ht="15" r="255" spans="1:5">
       <c r="A255" s="37" t="s">
         <v>678</v>
       </c>
@@ -15805,11 +16198,11 @@
         <v>1</v>
       </c>
       <c r="E255" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002037','1','V')</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15">
+    <row ht="15" r="256" spans="1:5">
       <c r="A256" s="37" t="s">
         <v>678</v>
       </c>
@@ -15823,11 +16216,11 @@
         <v>1</v>
       </c>
       <c r="E256" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002014','1','V')</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15">
+    <row ht="15" r="257" spans="1:5">
       <c r="A257" s="37" t="s">
         <v>678</v>
       </c>
@@ -15841,11 +16234,11 @@
         <v>1</v>
       </c>
       <c r="E257" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002013','1','V')</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15">
+    <row ht="15" r="258" spans="1:5">
       <c r="A258" s="37" t="s">
         <v>678</v>
       </c>
@@ -15859,11 +16252,11 @@
         <v>1</v>
       </c>
       <c r="E258" s="8" t="str">
-        <f t="shared" ref="E258:E321" si="4">"insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&amp;A258&amp;"','"&amp;B258&amp;"','"&amp;D258&amp;"','V')"</f>
+        <f ref="E258:E321" si="4" t="shared"><![CDATA["insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&A258&"','"&B258&"','"&D258&"','V')"]]></f>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002008','1','V')</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15">
+    <row ht="15" r="259" spans="1:5">
       <c r="A259" s="37" t="s">
         <v>678</v>
       </c>
@@ -15877,11 +16270,11 @@
         <v>1</v>
       </c>
       <c r="E259" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002007','1','V')</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15">
+    <row ht="15" r="260" spans="1:5">
       <c r="A260" s="37" t="s">
         <v>678</v>
       </c>
@@ -15895,11 +16288,11 @@
         <v>1</v>
       </c>
       <c r="E260" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002029','1','V')</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15">
+    <row ht="15" r="261" spans="1:5">
       <c r="A261" s="37" t="s">
         <v>678</v>
       </c>
@@ -15913,11 +16306,11 @@
         <v>1</v>
       </c>
       <c r="E261" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002517','1','V')</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15">
+    <row ht="15" r="262" spans="1:5">
       <c r="A262" s="37" t="s">
         <v>678</v>
       </c>
@@ -15931,11 +16324,11 @@
         <v>1</v>
       </c>
       <c r="E262" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002518','1','V')</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15">
+    <row ht="15" r="263" spans="1:5">
       <c r="A263" s="37" t="s">
         <v>678</v>
       </c>
@@ -15949,11 +16342,11 @@
         <v>1</v>
       </c>
       <c r="E263" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002028','1','V')</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15">
+    <row ht="15" r="264" spans="1:5">
       <c r="A264" s="37" t="s">
         <v>678</v>
       </c>
@@ -15967,11 +16360,11 @@
         <v>1</v>
       </c>
       <c r="E264" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS000010','1','V')</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15">
+    <row ht="15" r="265" spans="1:5">
       <c r="A265" s="37" t="s">
         <v>678</v>
       </c>
@@ -15985,11 +16378,11 @@
         <v>1</v>
       </c>
       <c r="E265" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002097','1','V')</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15">
+    <row ht="15" r="266" spans="1:5">
       <c r="A266" s="37" t="s">
         <v>678</v>
       </c>
@@ -16003,11 +16396,11 @@
         <v>1</v>
       </c>
       <c r="E266" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002096','1','V')</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15">
+    <row ht="15" r="267" spans="1:5">
       <c r="A267" s="37" t="s">
         <v>678</v>
       </c>
@@ -16021,11 +16414,11 @@
         <v>1</v>
       </c>
       <c r="E267" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002118','1','V')</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15">
+    <row ht="15" r="268" spans="1:5">
       <c r="A268" s="37" t="s">
         <v>678</v>
       </c>
@@ -16039,11 +16432,11 @@
         <v>1</v>
       </c>
       <c r="E268" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002117','1','V')</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15">
+    <row ht="15" r="269" spans="1:5">
       <c r="A269" s="37" t="s">
         <v>678</v>
       </c>
@@ -16057,11 +16450,11 @@
         <v>1</v>
       </c>
       <c r="E269" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002006','1','V')</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15">
+    <row ht="15" r="270" spans="1:5">
       <c r="A270" s="37" t="s">
         <v>678</v>
       </c>
@@ -16075,11 +16468,11 @@
         <v>1</v>
       </c>
       <c r="E270" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002005','1','V')</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15">
+    <row ht="15" r="271" spans="1:5">
       <c r="A271" s="37" t="s">
         <v>678</v>
       </c>
@@ -16093,11 +16486,11 @@
         <v>1</v>
       </c>
       <c r="E271" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001986','1','V')</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15">
+    <row ht="15" r="272" spans="1:5">
       <c r="A272" s="37" t="s">
         <v>678</v>
       </c>
@@ -16111,11 +16504,11 @@
         <v>1</v>
       </c>
       <c r="E272" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001985','1','V')</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15">
+    <row ht="15" r="273" spans="1:5">
       <c r="A273" s="37" t="s">
         <v>678</v>
       </c>
@@ -16129,11 +16522,11 @@
         <v>1</v>
       </c>
       <c r="E273" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002126','1','V')</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15">
+    <row ht="15" r="274" spans="1:5">
       <c r="A274" s="37" t="s">
         <v>678</v>
       </c>
@@ -16147,11 +16540,11 @@
         <v>1</v>
       </c>
       <c r="E274" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002125','1','V')</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15">
+    <row ht="15" r="275" spans="1:5">
       <c r="A275" s="37" t="s">
         <v>678</v>
       </c>
@@ -16165,11 +16558,11 @@
         <v>1</v>
       </c>
       <c r="E275" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002121','1','V')</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15">
+    <row ht="15" r="276" spans="1:5">
       <c r="A276" s="37" t="s">
         <v>678</v>
       </c>
@@ -16183,11 +16576,11 @@
         <v>1</v>
       </c>
       <c r="E276" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002120','1','V')</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15">
+    <row ht="15" r="277" spans="1:5">
       <c r="A277" s="37" t="s">
         <v>678</v>
       </c>
@@ -16201,11 +16594,11 @@
         <v>1</v>
       </c>
       <c r="E277" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001988','1','V')</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15">
+    <row ht="15" r="278" spans="1:5">
       <c r="A278" s="37" t="s">
         <v>678</v>
       </c>
@@ -16219,11 +16612,11 @@
         <v>1</v>
       </c>
       <c r="E278" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001987','1','V')</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15">
+    <row ht="15" r="279" spans="1:5">
       <c r="A279" s="37" t="s">
         <v>678</v>
       </c>
@@ -16237,11 +16630,11 @@
         <v>1</v>
       </c>
       <c r="E279" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002129','1','V')</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15">
+    <row ht="15" r="280" spans="1:5">
       <c r="A280" s="37" t="s">
         <v>678</v>
       </c>
@@ -16255,11 +16648,11 @@
         <v>1</v>
       </c>
       <c r="E280" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002128','1','V')</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15">
+    <row ht="15" r="281" spans="1:5">
       <c r="A281" s="37" t="s">
         <v>678</v>
       </c>
@@ -16273,11 +16666,11 @@
         <v>1</v>
       </c>
       <c r="E281" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002123','1','V')</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15">
+    <row ht="15" r="282" spans="1:5">
       <c r="A282" s="37" t="s">
         <v>678</v>
       </c>
@@ -16291,11 +16684,11 @@
         <v>1</v>
       </c>
       <c r="E282" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002122','1','V')</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15">
+    <row ht="15" r="283" spans="1:5">
       <c r="A283" s="37" t="s">
         <v>678</v>
       </c>
@@ -16309,11 +16702,11 @@
         <v>1</v>
       </c>
       <c r="E283" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002099','1','V')</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15">
+    <row ht="15" r="284" spans="1:5">
       <c r="A284" s="37" t="s">
         <v>678</v>
       </c>
@@ -16327,11 +16720,11 @@
         <v>1</v>
       </c>
       <c r="E284" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101207','1','V')</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15">
+    <row ht="15" r="285" spans="1:5">
       <c r="A285" s="37" t="s">
         <v>678</v>
       </c>
@@ -16345,11 +16738,11 @@
         <v>1</v>
       </c>
       <c r="E285" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS200030','1','V')</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15">
+    <row ht="15" r="286" spans="1:5">
       <c r="A286" s="37" t="s">
         <v>678</v>
       </c>
@@ -16363,11 +16756,11 @@
         <v>1</v>
       </c>
       <c r="E286" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101202','1','V')</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15">
+    <row ht="15" r="287" spans="1:5">
       <c r="A287" s="37" t="s">
         <v>678</v>
       </c>
@@ -16381,11 +16774,11 @@
         <v>1</v>
       </c>
       <c r="E287" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002002','1','V')</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15">
+    <row ht="15" r="288" spans="1:5">
       <c r="A288" s="37" t="s">
         <v>678</v>
       </c>
@@ -16399,11 +16792,11 @@
         <v>1</v>
       </c>
       <c r="E288" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002041','1','V')</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15">
+    <row ht="15" r="289" spans="1:5">
       <c r="A289" s="37" t="s">
         <v>678</v>
       </c>
@@ -16417,11 +16810,11 @@
         <v>1</v>
       </c>
       <c r="E289" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002025','1','V')</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15">
+    <row ht="15" r="290" spans="1:5">
       <c r="A290" s="37" t="s">
         <v>678</v>
       </c>
@@ -16435,11 +16828,11 @@
         <v>1</v>
       </c>
       <c r="E290" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101208','1','V')</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15">
+    <row ht="15" r="291" spans="1:5">
       <c r="A291" s="37" t="s">
         <v>678</v>
       </c>
@@ -16453,11 +16846,11 @@
         <v>1</v>
       </c>
       <c r="E291" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS000930','1','V')</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15">
+    <row ht="15" r="292" spans="1:5">
       <c r="A292" s="37" t="s">
         <v>678</v>
       </c>
@@ -16471,11 +16864,11 @@
         <v>1</v>
       </c>
       <c r="E292" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101192','1','V')</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15">
+    <row ht="15" r="293" spans="1:5">
       <c r="A293" s="37" t="s">
         <v>678</v>
       </c>
@@ -16489,11 +16882,11 @@
         <v>1</v>
       </c>
       <c r="E293" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001864','1','V')</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15">
+    <row ht="15" r="294" spans="1:5">
       <c r="A294" s="37" t="s">
         <v>678</v>
       </c>
@@ -16507,11 +16900,11 @@
         <v>1</v>
       </c>
       <c r="E294" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001923','1','V')</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15">
+    <row ht="15" r="295" spans="1:5">
       <c r="A295" s="37" t="s">
         <v>678</v>
       </c>
@@ -16525,11 +16918,11 @@
         <v>1</v>
       </c>
       <c r="E295" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002190','1','V')</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15">
+    <row ht="15" r="296" spans="1:5">
       <c r="A296" s="37" t="s">
         <v>678</v>
       </c>
@@ -16543,11 +16936,11 @@
         <v>1</v>
       </c>
       <c r="E296" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002191','1','V')</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15">
+    <row ht="15" r="297" spans="1:5">
       <c r="A297" s="37" t="s">
         <v>678</v>
       </c>
@@ -16561,11 +16954,11 @@
         <v>1</v>
       </c>
       <c r="E297" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002196','1','V')</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15">
+    <row ht="15" r="298" spans="1:5">
       <c r="A298" s="37" t="s">
         <v>678</v>
       </c>
@@ -16579,11 +16972,11 @@
         <v>1</v>
       </c>
       <c r="E298" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002200','1','V')</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15">
+    <row ht="15" r="299" spans="1:5">
       <c r="A299" s="37" t="s">
         <v>678</v>
       </c>
@@ -16597,11 +16990,11 @@
         <v>1</v>
       </c>
       <c r="E299" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002598','1','V')</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15">
+    <row ht="15" r="300" spans="1:5">
       <c r="A300" s="37" t="s">
         <v>678</v>
       </c>
@@ -16615,11 +17008,11 @@
         <v>1</v>
       </c>
       <c r="E300" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002199','1','V')</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15">
+    <row ht="15" r="301" spans="1:5">
       <c r="A301" s="37" t="s">
         <v>678</v>
       </c>
@@ -16633,11 +17026,11 @@
         <v>1</v>
       </c>
       <c r="E301" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002167','1','V')</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15">
+    <row ht="15" r="302" spans="1:5">
       <c r="A302" s="37" t="s">
         <v>678</v>
       </c>
@@ -16651,11 +17044,11 @@
         <v>1</v>
       </c>
       <c r="E302" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002519','1','V')</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15">
+    <row ht="15" r="303" spans="1:5">
       <c r="A303" s="37" t="s">
         <v>678</v>
       </c>
@@ -16669,11 +17062,11 @@
         <v>1</v>
       </c>
       <c r="E303" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002692','1','V')</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15">
+    <row ht="15" r="304" spans="1:5">
       <c r="A304" s="37" t="s">
         <v>678</v>
       </c>
@@ -16687,11 +17080,11 @@
         <v>1</v>
       </c>
       <c r="E304" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002693','1','V')</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15">
+    <row ht="15" r="305" spans="1:5">
       <c r="A305" s="37" t="s">
         <v>678</v>
       </c>
@@ -16705,11 +17098,11 @@
         <v>1</v>
       </c>
       <c r="E305" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002599','1','V')</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15">
+    <row ht="15" r="306" spans="1:5">
       <c r="A306" s="37" t="s">
         <v>678</v>
       </c>
@@ -16723,11 +17116,11 @@
         <v>1</v>
       </c>
       <c r="E306" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002522','1','V')</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15">
+    <row ht="15" r="307" spans="1:5">
       <c r="A307" s="37" t="s">
         <v>678</v>
       </c>
@@ -16741,11 +17134,11 @@
         <v>1</v>
       </c>
       <c r="E307" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002183','1','V')</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15">
+    <row ht="15" r="308" spans="1:5">
       <c r="A308" s="37" t="s">
         <v>678</v>
       </c>
@@ -16759,11 +17152,11 @@
         <v>1</v>
       </c>
       <c r="E308" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002186','1','V')</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15">
+    <row ht="15" r="309" spans="1:5">
       <c r="A309" s="37" t="s">
         <v>678</v>
       </c>
@@ -16777,11 +17170,11 @@
         <v>1</v>
       </c>
       <c r="E309" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002188','1','V')</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15">
+    <row ht="15" r="310" spans="1:5">
       <c r="A310" s="37" t="s">
         <v>678</v>
       </c>
@@ -16795,11 +17188,11 @@
         <v>1</v>
       </c>
       <c r="E310" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002170','1','V')</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15">
+    <row ht="15" r="311" spans="1:5">
       <c r="A311" s="37" t="s">
         <v>678</v>
       </c>
@@ -16813,11 +17206,11 @@
         <v>1</v>
       </c>
       <c r="E311" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002136','1','V')</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15">
+    <row ht="15" r="312" spans="1:5">
       <c r="A312" s="37" t="s">
         <v>678</v>
       </c>
@@ -16831,11 +17224,11 @@
         <v>1</v>
       </c>
       <c r="E312" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002600','1','V')</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15">
+    <row ht="15" r="313" spans="1:5">
       <c r="A313" s="37" t="s">
         <v>678</v>
       </c>
@@ -16849,11 +17242,11 @@
         <v>1</v>
       </c>
       <c r="E313" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002694','1','V')</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15">
+    <row ht="15" r="314" spans="1:5">
       <c r="A314" s="37" t="s">
         <v>678</v>
       </c>
@@ -16867,11 +17260,11 @@
         <v>1</v>
       </c>
       <c r="E314" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002527','1','V')</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15">
+    <row ht="15" r="315" spans="1:5">
       <c r="A315" s="37" t="s">
         <v>678</v>
       </c>
@@ -16885,11 +17278,11 @@
         <v>1</v>
       </c>
       <c r="E315" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002528','1','V')</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15">
+    <row ht="15" r="316" spans="1:5">
       <c r="A316" s="37" t="s">
         <v>678</v>
       </c>
@@ -16903,11 +17296,11 @@
         <v>1</v>
       </c>
       <c r="E316" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002529','1','V')</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15">
+    <row ht="15" r="317" spans="1:5">
       <c r="A317" s="37" t="s">
         <v>678</v>
       </c>
@@ -16921,11 +17314,11 @@
         <v>1</v>
       </c>
       <c r="E317" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002531','1','V')</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15">
+    <row ht="15" r="318" spans="1:5">
       <c r="A318" s="37" t="s">
         <v>678</v>
       </c>
@@ -16939,11 +17332,11 @@
         <v>1</v>
       </c>
       <c r="E318" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002532','1','V')</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15">
+    <row ht="15" r="319" spans="1:5">
       <c r="A319" s="37" t="s">
         <v>678</v>
       </c>
@@ -16957,11 +17350,11 @@
         <v>1</v>
       </c>
       <c r="E319" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002533','1','V')</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15">
+    <row ht="15" r="320" spans="1:5">
       <c r="A320" s="37" t="s">
         <v>678</v>
       </c>
@@ -16975,11 +17368,11 @@
         <v>1</v>
       </c>
       <c r="E320" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002601','1','V')</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15">
+    <row ht="15" r="321" spans="1:5">
       <c r="A321" s="37" t="s">
         <v>678</v>
       </c>
@@ -16993,11 +17386,11 @@
         <v>1</v>
       </c>
       <c r="E321" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002602','1','V')</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15">
+    <row ht="15" r="322" spans="1:5">
       <c r="A322" s="37" t="s">
         <v>678</v>
       </c>
@@ -17011,11 +17404,11 @@
         <v>1</v>
       </c>
       <c r="E322" s="8" t="str">
-        <f t="shared" ref="E322:E383" si="5">"insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&amp;A322&amp;"','"&amp;B322&amp;"','"&amp;D322&amp;"','V')"</f>
+        <f ref="E322:E383" si="5" t="shared"><![CDATA["insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('"&A322&"','"&B322&"','"&D322&"','V')"]]></f>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002603','1','V')</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15">
+    <row ht="15" r="323" spans="1:5">
       <c r="A323" s="37" t="s">
         <v>678</v>
       </c>
@@ -17029,11 +17422,11 @@
         <v>1</v>
       </c>
       <c r="E323" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002182','1','V')</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15">
+    <row ht="15" r="324" spans="1:5">
       <c r="A324" s="37" t="s">
         <v>678</v>
       </c>
@@ -17047,11 +17440,11 @@
         <v>1</v>
       </c>
       <c r="E324" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002181','1','V')</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15">
+    <row ht="15" r="325" spans="1:5">
       <c r="A325" s="37" t="s">
         <v>678</v>
       </c>
@@ -17065,11 +17458,11 @@
         <v>1</v>
       </c>
       <c r="E325" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002163','1','V')</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15">
+    <row ht="15" r="326" spans="1:5">
       <c r="A326" s="37" t="s">
         <v>678</v>
       </c>
@@ -17083,11 +17476,11 @@
         <v>1</v>
       </c>
       <c r="E326" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002535','1','V')</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15">
+    <row ht="15" r="327" spans="1:5">
       <c r="A327" s="37" t="s">
         <v>678</v>
       </c>
@@ -17101,11 +17494,11 @@
         <v>1</v>
       </c>
       <c r="E327" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002160','1','V')</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15">
+    <row ht="15" r="328" spans="1:5">
       <c r="A328" s="37" t="s">
         <v>678</v>
       </c>
@@ -17119,11 +17512,11 @@
         <v>1</v>
       </c>
       <c r="E328" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002153','1','V')</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15">
+    <row ht="15" r="329" spans="1:5">
       <c r="A329" s="37" t="s">
         <v>678</v>
       </c>
@@ -17137,11 +17530,11 @@
         <v>1</v>
       </c>
       <c r="E329" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002536','1','V')</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15">
+    <row ht="15" r="330" spans="1:5">
       <c r="A330" s="37" t="s">
         <v>678</v>
       </c>
@@ -17155,11 +17548,11 @@
         <v>1</v>
       </c>
       <c r="E330" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002537','1','V')</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15">
+    <row ht="15" r="331" spans="1:5">
       <c r="A331" s="37" t="s">
         <v>678</v>
       </c>
@@ -17173,11 +17566,11 @@
         <v>1</v>
       </c>
       <c r="E331" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002150','1','V')</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15">
+    <row ht="15" r="332" spans="1:5">
       <c r="A332" s="37" t="s">
         <v>678</v>
       </c>
@@ -17191,11 +17584,11 @@
         <v>1</v>
       </c>
       <c r="E332" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002152','1','V')</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15">
+    <row ht="15" r="333" spans="1:5">
       <c r="A333" s="37" t="s">
         <v>678</v>
       </c>
@@ -17209,11 +17602,11 @@
         <v>1</v>
       </c>
       <c r="E333" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002604','1','V')</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15">
+    <row ht="15" r="334" spans="1:5">
       <c r="A334" s="37" t="s">
         <v>678</v>
       </c>
@@ -17227,11 +17620,11 @@
         <v>1</v>
       </c>
       <c r="E334" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001846','1','V')</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15">
+    <row ht="15" r="335" spans="1:5">
       <c r="A335" s="37" t="s">
         <v>678</v>
       </c>
@@ -17245,11 +17638,11 @@
         <v>1</v>
       </c>
       <c r="E335" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001848','1','V')</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15">
+    <row ht="15" r="336" spans="1:5">
       <c r="A336" s="37" t="s">
         <v>678</v>
       </c>
@@ -17263,11 +17656,11 @@
         <v>1</v>
       </c>
       <c r="E336" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001845','1','V')</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15">
+    <row ht="15" r="337" spans="1:5">
       <c r="A337" s="37" t="s">
         <v>678</v>
       </c>
@@ -17281,11 +17674,11 @@
         <v>1</v>
       </c>
       <c r="E337" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001847','1','V')</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15">
+    <row ht="15" r="338" spans="1:5">
       <c r="A338" s="37" t="s">
         <v>678</v>
       </c>
@@ -17299,11 +17692,11 @@
         <v>1</v>
       </c>
       <c r="E338" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001850','1','V')</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15">
+    <row ht="15" r="339" spans="1:5">
       <c r="A339" s="37" t="s">
         <v>678</v>
       </c>
@@ -17317,11 +17710,11 @@
         <v>1</v>
       </c>
       <c r="E339" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001849','1','V')</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15">
+    <row ht="15" r="340" spans="1:5">
       <c r="A340" s="37" t="s">
         <v>678</v>
       </c>
@@ -17335,11 +17728,11 @@
         <v>1</v>
       </c>
       <c r="E340" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200625','1','V')</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15">
+    <row ht="15" r="341" spans="1:5">
       <c r="A341" s="37" t="s">
         <v>678</v>
       </c>
@@ -17353,11 +17746,11 @@
         <v>1</v>
       </c>
       <c r="E341" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200626','1','V')</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15">
+    <row ht="15" r="342" spans="1:5">
       <c r="A342" s="37" t="s">
         <v>678</v>
       </c>
@@ -17371,11 +17764,11 @@
         <v>1</v>
       </c>
       <c r="E342" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200627','1','V')</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15">
+    <row ht="15" r="343" spans="1:5">
       <c r="A343" s="37" t="s">
         <v>678</v>
       </c>
@@ -17389,11 +17782,11 @@
         <v>1</v>
       </c>
       <c r="E343" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200628','1','V')</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15">
+    <row ht="15" r="344" spans="1:5">
       <c r="A344" s="37" t="s">
         <v>678</v>
       </c>
@@ -17407,11 +17800,11 @@
         <v>1</v>
       </c>
       <c r="E344" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS100690','1','V')</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15">
+    <row ht="15" r="345" spans="1:5">
       <c r="A345" s="37" t="s">
         <v>678</v>
       </c>
@@ -17425,11 +17818,11 @@
         <v>1</v>
       </c>
       <c r="E345" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS100680','1','V')</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15">
+    <row ht="15" r="346" spans="1:5">
       <c r="A346" s="37" t="s">
         <v>678</v>
       </c>
@@ -17443,11 +17836,11 @@
         <v>1</v>
       </c>
       <c r="E346" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002784','1','V')</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15">
+    <row ht="15" r="347" spans="1:5">
       <c r="A347" s="37" t="s">
         <v>678</v>
       </c>
@@ -17461,11 +17854,11 @@
         <v>1</v>
       </c>
       <c r="E347" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002785','1','V')</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15">
+    <row ht="15" r="348" spans="1:5">
       <c r="A348" s="37" t="s">
         <v>678</v>
       </c>
@@ -17479,11 +17872,11 @@
         <v>1</v>
       </c>
       <c r="E348" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF001953','1','V')</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15">
+    <row ht="15" r="349" spans="1:5">
       <c r="A349" s="37" t="s">
         <v>678</v>
       </c>
@@ -17497,11 +17890,11 @@
         <v>1</v>
       </c>
       <c r="E349" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF002138','1','V')</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15">
+    <row ht="15" r="350" spans="1:5">
       <c r="A350" s="37" t="s">
         <v>678</v>
       </c>
@@ -17515,11 +17908,11 @@
         <v>1</v>
       </c>
       <c r="E350" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002418','1','V')</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15">
+    <row ht="15" r="351" spans="1:5">
       <c r="A351" s="37" t="s">
         <v>678</v>
       </c>
@@ -17533,11 +17926,11 @@
         <v>1</v>
       </c>
       <c r="E351" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002081','1','V')</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15">
+    <row ht="15" r="352" spans="1:5">
       <c r="A352" s="37" t="s">
         <v>678</v>
       </c>
@@ -17551,11 +17944,11 @@
         <v>1</v>
       </c>
       <c r="E352" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002465','1','V')</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15">
+    <row ht="15" r="353" spans="1:5">
       <c r="A353" s="37" t="s">
         <v>678</v>
       </c>
@@ -17569,11 +17962,11 @@
         <v>1</v>
       </c>
       <c r="E353" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101212','1','V')</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15">
+    <row ht="15" r="354" spans="1:5">
       <c r="A354" s="37" t="s">
         <v>678</v>
       </c>
@@ -17587,11 +17980,11 @@
         <v>1</v>
       </c>
       <c r="E354" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101209','1','V')</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15">
+    <row ht="15" r="355" spans="1:5">
       <c r="A355" s="37" t="s">
         <v>678</v>
       </c>
@@ -17605,11 +17998,11 @@
         <v>1</v>
       </c>
       <c r="E355" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101213','1','V')</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15">
+    <row ht="15" r="356" spans="1:5">
       <c r="A356" s="37" t="s">
         <v>678</v>
       </c>
@@ -17623,11 +18016,11 @@
         <v>1</v>
       </c>
       <c r="E356" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS101210','1','V')</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15">
+    <row ht="15" r="357" spans="1:5">
       <c r="A357" s="37" t="s">
         <v>678</v>
       </c>
@@ -17641,11 +18034,11 @@
         <v>1</v>
       </c>
       <c r="E357" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001916','1','V')</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15">
+    <row ht="15" r="358" spans="1:5">
       <c r="A358" s="37" t="s">
         <v>678</v>
       </c>
@@ -17659,11 +18052,11 @@
         <v>1</v>
       </c>
       <c r="E358" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001220','1','V')</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15">
+    <row ht="15" r="359" spans="1:5">
       <c r="A359" s="36" t="s">
         <v>678</v>
       </c>
@@ -17677,11 +18070,11 @@
         <v>1</v>
       </c>
       <c r="E359" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002731','1','V')</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15">
+    <row ht="15" r="360" spans="1:5">
       <c r="A360" s="36" t="s">
         <v>678</v>
       </c>
@@ -17695,11 +18088,11 @@
         <v>1</v>
       </c>
       <c r="E360" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002707','1','V')</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15">
+    <row ht="15" r="361" spans="1:5">
       <c r="A361" s="35" t="s">
         <v>678</v>
       </c>
@@ -17713,11 +18106,11 @@
         <v>1</v>
       </c>
       <c r="E361" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001842','1','V')</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15">
+    <row ht="15" r="362" spans="1:5">
       <c r="A362" s="35" t="s">
         <v>678</v>
       </c>
@@ -17731,11 +18124,11 @@
         <v>1</v>
       </c>
       <c r="E362" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001843','1','V')</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15">
+    <row ht="15" r="363" spans="1:5">
       <c r="A363" s="35" t="s">
         <v>678</v>
       </c>
@@ -17749,11 +18142,11 @@
         <v>1</v>
       </c>
       <c r="E363" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001974','1','V')</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15">
+    <row ht="15" r="364" spans="1:5">
       <c r="A364" s="35" t="s">
         <v>678</v>
       </c>
@@ -17767,11 +18160,11 @@
         <v>1</v>
       </c>
       <c r="E364" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001914','1','V')</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15">
+    <row ht="15" r="365" spans="1:5">
       <c r="A365" s="35" t="s">
         <v>678</v>
       </c>
@@ -17785,11 +18178,11 @@
         <v>1</v>
       </c>
       <c r="E365" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002114','1','V')</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15">
+    <row ht="15" r="366" spans="1:5">
       <c r="A366" s="35" t="s">
         <v>678</v>
       </c>
@@ -17803,11 +18196,11 @@
         <v>1</v>
       </c>
       <c r="E366" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002116','1','V')</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15">
+    <row ht="15" r="367" spans="1:5">
       <c r="A367" s="35" t="s">
         <v>678</v>
       </c>
@@ -17821,11 +18214,11 @@
         <v>1</v>
       </c>
       <c r="E367" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002103','1','V')</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15">
+    <row ht="15" r="368" spans="1:5">
       <c r="A368" s="35" t="s">
         <v>678</v>
       </c>
@@ -17839,11 +18232,11 @@
         <v>1</v>
       </c>
       <c r="E368" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002107','1','V')</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15">
+    <row ht="15" r="369" spans="1:5">
       <c r="A369" s="35" t="s">
         <v>678</v>
       </c>
@@ -17857,11 +18250,11 @@
         <v>1</v>
       </c>
       <c r="E369" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002101','1','V')</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15">
+    <row ht="15" r="370" spans="1:5">
       <c r="A370" s="35" t="s">
         <v>678</v>
       </c>
@@ -17875,11 +18268,11 @@
         <v>1</v>
       </c>
       <c r="E370" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002105','1','V')</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15">
+    <row ht="15" r="371" spans="1:5">
       <c r="A371" s="35" t="s">
         <v>678</v>
       </c>
@@ -17893,11 +18286,11 @@
         <v>1</v>
       </c>
       <c r="E371" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002111','1','V')</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15">
+    <row ht="15" r="372" spans="1:5">
       <c r="A372" s="35" t="s">
         <v>678</v>
       </c>
@@ -17911,11 +18304,11 @@
         <v>1</v>
       </c>
       <c r="E372" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002109','1','V')</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15">
+    <row ht="15" r="373" spans="1:5">
       <c r="A373" s="35" t="s">
         <v>678</v>
       </c>
@@ -17929,11 +18322,11 @@
         <v>1</v>
       </c>
       <c r="E373" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002115','1','V')</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15">
+    <row ht="15" r="374" spans="1:5">
       <c r="A374" s="35" t="s">
         <v>678</v>
       </c>
@@ -17947,11 +18340,11 @@
         <v>1</v>
       </c>
       <c r="E374" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002102','1','V')</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15">
+    <row ht="15" r="375" spans="1:5">
       <c r="A375" s="35" t="s">
         <v>678</v>
       </c>
@@ -17965,11 +18358,11 @@
         <v>1</v>
       </c>
       <c r="E375" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002106','1','V')</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15">
+    <row ht="15" r="376" spans="1:5">
       <c r="A376" s="35" t="s">
         <v>678</v>
       </c>
@@ -17983,11 +18376,11 @@
         <v>1</v>
       </c>
       <c r="E376" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002100','1','V')</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15">
+    <row ht="15" r="377" spans="1:5">
       <c r="A377" s="35" t="s">
         <v>678</v>
       </c>
@@ -18001,11 +18394,11 @@
         <v>1</v>
       </c>
       <c r="E377" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002104','1','V')</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15">
+    <row ht="15" r="378" spans="1:5">
       <c r="A378" s="35" t="s">
         <v>678</v>
       </c>
@@ -18019,11 +18412,11 @@
         <v>1</v>
       </c>
       <c r="E378" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002110','1','V')</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15">
+    <row ht="15" r="379" spans="1:5">
       <c r="A379" s="35" t="s">
         <v>678</v>
       </c>
@@ -18037,11 +18430,11 @@
         <v>1</v>
       </c>
       <c r="E379" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002108','1','V')</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15">
+    <row ht="15" r="380" spans="1:5">
       <c r="A380" s="35" t="s">
         <v>678</v>
       </c>
@@ -18055,11 +18448,11 @@
         <v>1</v>
       </c>
       <c r="E380" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS002113','1','V')</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15">
+    <row ht="15" r="381" spans="1:5">
       <c r="A381" s="35" t="s">
         <v>678</v>
       </c>
@@ -18073,11 +18466,11 @@
         <v>1</v>
       </c>
       <c r="E381" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFIS001844','1','V')</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15">
+    <row ht="15" r="382" spans="1:5">
       <c r="A382" s="36" t="s">
         <v>678</v>
       </c>
@@ -18091,11 +18484,11 @@
         <v>1</v>
       </c>
       <c r="E382" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFBS002798','1','V')</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15">
+    <row ht="15" r="383" spans="1:5">
       <c r="A383" s="37" t="s">
         <v>678</v>
       </c>
@@ -18109,14 +18502,14 @@
         <v>1</v>
       </c>
       <c r="E383" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>insert into gtr_deletions([FileSource],[DeleteID],[DeleteforAllCollectMarket],[IndustryCode]) VALUES('1|2|4|5|6|7|8|9|10|11|12|13|14|15|16|18|19|20|21|22|23|24|25|26','IFCF200180','1','V')</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E383"/>
   <phoneticPr fontId="26" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>